--- a/results/etwfe_rural.xlsx
+++ b/results/etwfe_rural.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>drought2</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -441,37 +441,37 @@
         </is>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.000329646064831438</v>
+        <v>0.002321987368956826</v>
       </c>
       <c r="E2">
-        <v>0.002583482358979189</v>
+        <v>0.001197744929355371</v>
       </c>
       <c r="F2">
-        <v>0.1275975675567187</v>
+        <v>1.938632602023642</v>
       </c>
       <c r="G2">
-        <v>0.8984674562062714</v>
+        <v>0.05254609077979068</v>
       </c>
       <c r="H2">
-        <v>0.154461846711551</v>
+        <v>4.250272752369275</v>
       </c>
       <c r="I2">
-        <v>-0.004733886313462349</v>
+        <v>-2.55495552451716E-05</v>
       </c>
       <c r="J2">
-        <v>0.005393178443125226</v>
+        <v>0.004669524293158824</v>
       </c>
       <c r="K2">
-        <v>0.08033460972901965</v>
+        <v>-0.01238338663213781</v>
       </c>
       <c r="L2">
-        <v>0.1033107275333083</v>
+        <v>0.01163592004558963</v>
       </c>
       <c r="M2">
-        <v>0.1033107275333083</v>
+        <v>0.01163592004558963</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -494,38 +494,38 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.00998299454984064</v>
+        <v>0.0007450261588136473</v>
       </c>
       <c r="E3">
-        <v>0.003980352910574111</v>
+        <v>0.002846214976234417</v>
       </c>
       <c r="F3">
-        <v>-2.508067695032783</v>
+        <v>0.2617603255673005</v>
       </c>
       <c r="G3">
-        <v>0.01213934082075131</v>
+        <v>0.7935062283938284</v>
       </c>
       <c r="H3">
-        <v>6.364166105944943</v>
+        <v>0.3336865477719288</v>
       </c>
       <c r="I3">
-        <v>-0.01778434290032507</v>
+        <v>-0.004833452686864334</v>
       </c>
       <c r="J3">
-        <v>-0.002181646199356206</v>
+        <v>0.006323505004491629</v>
       </c>
       <c r="K3">
-        <v>0.07525904095473898</v>
+        <v>0.08033460972901965</v>
       </c>
       <c r="L3">
-        <v>0.03900912118834204</v>
+        <v>0.1033107275333083</v>
       </c>
       <c r="M3">
-        <v>0.03900912118834204</v>
+        <v>0.1033107275333083</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>ZWE</t>
         </is>
       </c>
     </row>
@@ -541,41 +541,41 @@
         </is>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.001185022091097205</v>
+        <v>-0.004346693842082468</v>
       </c>
       <c r="E4">
-        <v>0.003394793668406464</v>
+        <v>0.002685307627898286</v>
       </c>
       <c r="F4">
-        <v>-0.3490704316216842</v>
+        <v>-1.618694929744232</v>
       </c>
       <c r="G4">
-        <v>0.7270364341675701</v>
+        <v>0.1055129183401791</v>
       </c>
       <c r="H4">
-        <v>0.4599004307757956</v>
+        <v>3.244508450605576</v>
       </c>
       <c r="I4">
-        <v>-0.007838695416118485</v>
+        <v>-0.009609800080173793</v>
       </c>
       <c r="J4">
-        <v>0.005468651233924074</v>
+        <v>0.0009164123960088578</v>
       </c>
       <c r="K4">
-        <v>0.01058574795574125</v>
+        <v>0.1404590383705003</v>
       </c>
       <c r="L4">
-        <v>-2.804028884084708E-11</v>
+        <v>0.1370713316805161</v>
       </c>
       <c r="M4">
-        <v>-2.804028884084708E-11</v>
+        <v>0.1370713316805161</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>ZMB</t>
         </is>
       </c>
     </row>
@@ -594,38 +594,38 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-0.005922841249681321</v>
+        <v>-0.0113866727318342</v>
       </c>
       <c r="E5">
-        <v>0.002333161152052423</v>
+        <v>0.004083578149677822</v>
       </c>
       <c r="F5">
-        <v>-2.538547860044364</v>
+        <v>-2.788405734988214</v>
       </c>
       <c r="G5">
-        <v>0.01113135766141361</v>
+        <v>0.005296815978374185</v>
       </c>
       <c r="H5">
-        <v>6.489226624773591</v>
+        <v>7.560658897170586</v>
       </c>
       <c r="I5">
-        <v>-0.01049575307783205</v>
+        <v>-0.01939033883325744</v>
       </c>
       <c r="J5">
-        <v>-0.001349929421530592</v>
+        <v>-0.003383006630410955</v>
       </c>
       <c r="K5">
-        <v>0.003273748827756271</v>
+        <v>0.07525904095473898</v>
       </c>
       <c r="L5">
-        <v>0.004275266071049597</v>
+        <v>0.03900912118834204</v>
       </c>
       <c r="M5">
-        <v>0.004275266071049597</v>
+        <v>0.03900912118834204</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>ZMB</t>
         </is>
       </c>
     </row>
@@ -641,41 +641,41 @@
         </is>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03634567821972019</v>
+        <v>0.003409794351786297</v>
       </c>
       <c r="E6">
-        <v>0.002946536592847283</v>
+        <v>0.0004380277207998406</v>
       </c>
       <c r="F6">
-        <v>12.33505068559112</v>
+        <v>7.784425938979381</v>
       </c>
       <c r="G6">
-        <v>5.865200491682799E-35</v>
+        <v>7.003045211867038E-15</v>
       </c>
       <c r="H6">
-        <v>113.715302895939</v>
+        <v>47.0209390217208</v>
       </c>
       <c r="I6">
-        <v>0.03057057261861015</v>
+        <v>0.002551275794788444</v>
       </c>
       <c r="J6">
-        <v>0.04212078382083022</v>
+        <v>0.004268312908784151</v>
       </c>
       <c r="K6">
-        <v>0.005908418091077273</v>
+        <v>0.0003760193026333003</v>
       </c>
       <c r="L6">
-        <v>0.005050138286156795</v>
+        <v>-1.306130334097211E-12</v>
       </c>
       <c r="M6">
-        <v>0.005050138286156795</v>
+        <v>-1.306130334097211E-12</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ZAF</t>
         </is>
       </c>
     </row>
@@ -694,38 +694,38 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.00616710235575189</v>
+        <v>-0.001336459653685833</v>
       </c>
       <c r="E7">
-        <v>0.004725462419610702</v>
+        <v>0.003255456105502816</v>
       </c>
       <c r="F7">
-        <v>1.305079124142089</v>
+        <v>-0.4105291579348179</v>
       </c>
       <c r="G7">
-        <v>0.1918659064305639</v>
+        <v>0.6814178188134196</v>
       </c>
       <c r="H7">
-        <v>2.381829719953318</v>
+        <v>0.5533884210403697</v>
       </c>
       <c r="I7">
-        <v>-0.003094633796982584</v>
+        <v>-0.007717036373722378</v>
       </c>
       <c r="J7">
-        <v>0.01542883850848636</v>
+        <v>0.005044117066350712</v>
       </c>
       <c r="K7">
-        <v>0.06155160993860807</v>
+        <v>0.01058574795574125</v>
       </c>
       <c r="L7">
-        <v>0.06142797489966748</v>
+        <v>-2.804028884084708E-11</v>
       </c>
       <c r="M7">
-        <v>0.06142797489966748</v>
+        <v>-2.804028884084708E-11</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>ZAF</t>
         </is>
       </c>
     </row>
@@ -741,41 +741,41 @@
         </is>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-0.005131434571340928</v>
+        <v>0.002693518075141742</v>
       </c>
       <c r="E8">
-        <v>0.006284108477276891</v>
+        <v>0.003609016271314649</v>
       </c>
       <c r="F8">
-        <v>-0.8165732004620877</v>
+        <v>0.7463302663804779</v>
       </c>
       <c r="G8">
-        <v>0.4141723755146619</v>
+        <v>0.45546793244373</v>
       </c>
       <c r="H8">
-        <v>1.271696763050466</v>
+        <v>1.134578611294682</v>
       </c>
       <c r="I8">
-        <v>-0.01744806086174647</v>
+        <v>-0.004380023836254006</v>
       </c>
       <c r="J8">
-        <v>0.007185191719064617</v>
+        <v>0.009767059986537489</v>
       </c>
       <c r="K8">
-        <v>0.001403238995117813</v>
+        <v>0.01642607307826176</v>
       </c>
       <c r="L8">
-        <v>0.005279454959220849</v>
+        <v>0.006623459853956274</v>
       </c>
       <c r="M8">
-        <v>0.005279454959220849</v>
+        <v>0.006623459853956274</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>UZB</t>
         </is>
       </c>
     </row>
@@ -794,38 +794,38 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>7.471840367329137E-05</v>
+        <v>-0.005941424424320054</v>
       </c>
       <c r="E9">
-        <v>0.00222550510847185</v>
+        <v>0.002277495148219674</v>
       </c>
       <c r="F9">
-        <v>0.03357368329053039</v>
+        <v>-2.608753932566876</v>
       </c>
       <c r="G9">
-        <v>0.9732171081255443</v>
+        <v>0.009087256114987464</v>
       </c>
       <c r="H9">
-        <v>0.03916641333796187</v>
+        <v>6.781939544355534</v>
       </c>
       <c r="I9">
-        <v>-0.004287191456341439</v>
+        <v>-0.01040523288979532</v>
       </c>
       <c r="J9">
-        <v>0.004436628263688022</v>
+        <v>-0.001477615958844782</v>
       </c>
       <c r="K9">
-        <v>-0.007606132122346679</v>
+        <v>0.003273748827756271</v>
       </c>
       <c r="L9">
-        <v>-0.01400070584460253</v>
+        <v>0.004275266071049597</v>
       </c>
       <c r="M9">
-        <v>-0.01400070584460253</v>
+        <v>0.004275266071049597</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>UZB</t>
         </is>
       </c>
     </row>
@@ -841,41 +841,41 @@
         </is>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.00224866171755382</v>
+        <v>0.01334480006885905</v>
       </c>
       <c r="E10">
-        <v>0.006416754996944162</v>
+        <v>0.003075451965691269</v>
       </c>
       <c r="F10">
-        <v>0.3504359631347457</v>
+        <v>4.339134611019536</v>
       </c>
       <c r="G10">
-        <v>0.7260115407038747</v>
+        <v>1.430448872527557E-05</v>
       </c>
       <c r="H10">
-        <v>0.4619356133551579</v>
+        <v>16.09317254103236</v>
       </c>
       <c r="I10">
-        <v>-0.01032794697407416</v>
+        <v>0.007317024979921254</v>
       </c>
       <c r="J10">
-        <v>0.0148252704091818</v>
+        <v>0.01937257515779685</v>
       </c>
       <c r="K10">
-        <v>0.01989840460102375</v>
+        <v>0.09765108666620849</v>
       </c>
       <c r="L10">
-        <v>0.03057790291178076</v>
+        <v>0.2654828832489214</v>
       </c>
       <c r="M10">
-        <v>0.03057790291178076</v>
+        <v>0.2654828832489214</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>UGA</t>
         </is>
       </c>
     </row>
@@ -894,38 +894,38 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.007411195928752176</v>
+        <v>0.02855460901040132</v>
       </c>
       <c r="E11">
-        <v>0.005148779612855007</v>
+        <v>0.002864144555788929</v>
       </c>
       <c r="F11">
-        <v>1.43940826487282</v>
+        <v>9.969681506712902</v>
       </c>
       <c r="G11">
-        <v>0.1500348840666393</v>
+        <v>2.068912040442644E-23</v>
       </c>
       <c r="H11">
-        <v>2.736630119374134</v>
+        <v>75.35547387192128</v>
       </c>
       <c r="I11">
-        <v>-0.002680226676777719</v>
+        <v>0.02294098883453855</v>
       </c>
       <c r="J11">
-        <v>0.01750261853428207</v>
+        <v>0.0341682291862641</v>
       </c>
       <c r="K11">
-        <v>0.1727815814632112</v>
+        <v>0.005908418091077273</v>
       </c>
       <c r="L11">
-        <v>0.1686401916328241</v>
+        <v>0.005050138286156795</v>
       </c>
       <c r="M11">
-        <v>0.1686401916328241</v>
+        <v>0.005050138286156795</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>UGA</t>
         </is>
       </c>
     </row>
@@ -941,41 +941,41 @@
         </is>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-0.009424846326490035</v>
+        <v>0.005001761232238825</v>
       </c>
       <c r="E12">
-        <v>0.0128344230375967</v>
+        <v>0.004092280716849204</v>
       </c>
       <c r="F12">
-        <v>-0.7343412554566131</v>
+        <v>1.222242944293876</v>
       </c>
       <c r="G12">
-        <v>0.462740779960776</v>
+        <v>0.2216157683923027</v>
       </c>
       <c r="H12">
-        <v>1.111723849983045</v>
+        <v>2.173867559294297</v>
       </c>
       <c r="I12">
-        <v>-0.03457985324253071</v>
+        <v>-0.003018961587413369</v>
       </c>
       <c r="J12">
-        <v>0.01573016058955064</v>
+        <v>0.01302248405189102</v>
       </c>
       <c r="K12">
-        <v>0.1106271854278808</v>
+        <v>0.04725640086527218</v>
       </c>
       <c r="L12">
-        <v>0.1152368415118945</v>
+        <v>0.09110018077716787</v>
       </c>
       <c r="M12">
-        <v>0.1152368415118945</v>
+        <v>0.09110018077716787</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TZA</t>
         </is>
       </c>
     </row>
@@ -994,38 +994,38 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.01067983414428227</v>
+        <v>0.006294780411108397</v>
       </c>
       <c r="E13">
-        <v>0.007695703892356415</v>
+        <v>0.004221743541417271</v>
       </c>
       <c r="F13">
-        <v>1.387765731850699</v>
+        <v>1.491038086362582</v>
       </c>
       <c r="G13">
-        <v>0.1652083928500238</v>
+        <v>0.1359514957987319</v>
       </c>
       <c r="H13">
-        <v>2.597641115057716</v>
+        <v>2.878836070265836</v>
       </c>
       <c r="I13">
-        <v>-0.004403468320421005</v>
+        <v>-0.001979684882034035</v>
       </c>
       <c r="J13">
-        <v>0.02576313660898556</v>
+        <v>0.01456924570425083</v>
       </c>
       <c r="K13">
-        <v>-0.01631302775091465</v>
+        <v>0.06155160993860807</v>
       </c>
       <c r="L13">
-        <v>-0.01485319124198472</v>
+        <v>0.06142797489966748</v>
       </c>
       <c r="M13">
-        <v>-0.01485319124198472</v>
+        <v>0.06142797489966748</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>TZA</t>
         </is>
       </c>
     </row>
@@ -1041,41 +1041,41 @@
         </is>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03319944750327103</v>
+        <v>-0.0006072210138859308</v>
       </c>
       <c r="E14">
-        <v>0.01249042832133582</v>
+        <v>0.005332251898107812</v>
       </c>
       <c r="F14">
-        <v>2.657991115209444</v>
+        <v>-0.1138770308472125</v>
       </c>
       <c r="G14">
-        <v>0.007860796534812102</v>
+        <v>0.9093352738304903</v>
       </c>
       <c r="H14">
-        <v>6.991108776427659</v>
+        <v>0.1371157776831491</v>
       </c>
       <c r="I14">
-        <v>0.008718657841973735</v>
+        <v>-0.01105824269067258</v>
       </c>
       <c r="J14">
-        <v>0.05768023716456833</v>
+        <v>0.00984380066290072</v>
       </c>
       <c r="K14">
-        <v>0.0156878950683778</v>
+        <v>0.03348985295010285</v>
       </c>
       <c r="L14">
-        <v>0.05808623220460599</v>
+        <v>0.03976273465092948</v>
       </c>
       <c r="M14">
-        <v>0.05808623220460599</v>
+        <v>0.03976273465092948</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>TLS</t>
         </is>
       </c>
     </row>
@@ -1094,38 +1094,38 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>-0.005231907973090972</v>
+        <v>-0.004872722297170808</v>
       </c>
       <c r="E15">
-        <v>0.002733363759064376</v>
+        <v>0.006226590634768036</v>
       </c>
       <c r="F15">
-        <v>-1.914091366632388</v>
+        <v>-0.7825666697859504</v>
       </c>
       <c r="G15">
-        <v>0.05560848245855787</v>
+        <v>0.4338816204436949</v>
       </c>
       <c r="H15">
-        <v>4.168551222878222</v>
+        <v>1.204626621100414</v>
       </c>
       <c r="I15">
-        <v>-0.01058920249750417</v>
+        <v>-0.01707661568779055</v>
       </c>
       <c r="J15">
-        <v>0.0001253865513222213</v>
+        <v>0.007331171093448932</v>
       </c>
       <c r="K15">
-        <v>0.1048973560803542</v>
+        <v>0.001403238995117813</v>
       </c>
       <c r="L15">
-        <v>0.1025271208068445</v>
+        <v>0.005279454959220849</v>
       </c>
       <c r="M15">
-        <v>0.1025271208068445</v>
+        <v>0.005279454959220849</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>TLS</t>
         </is>
       </c>
     </row>
@@ -1141,41 +1141,41 @@
         </is>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-0.00257132437685422</v>
+        <v>0.003839092667376093</v>
       </c>
       <c r="E16">
-        <v>0.006522838263883462</v>
+        <v>0.001330171866607483</v>
       </c>
       <c r="F16">
-        <v>-0.3942033012057771</v>
+        <v>2.886162881468429</v>
       </c>
       <c r="G16">
-        <v>0.6934309486153973</v>
+        <v>0.00389970278243891</v>
       </c>
       <c r="H16">
-        <v>0.5281758677819144</v>
+        <v>8.002420112133716</v>
       </c>
       <c r="I16">
-        <v>-0.01535585245104558</v>
+        <v>0.001232003715577009</v>
       </c>
       <c r="J16">
-        <v>0.01021320369733714</v>
+        <v>0.006446181619175177</v>
       </c>
       <c r="K16">
-        <v>0.08446507802407237</v>
+        <v>-0.01462699339983032</v>
       </c>
       <c r="L16">
-        <v>0.1008747158123663</v>
+        <v>-0.005304318458786195</v>
       </c>
       <c r="M16">
-        <v>0.1008747158123663</v>
+        <v>-0.005304318458786195</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>TJK</t>
         </is>
       </c>
     </row>
@@ -1194,38 +1194,38 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.003560872120429436</v>
+        <v>0.0001411776793018474</v>
       </c>
       <c r="E17">
-        <v>0.001086553290546272</v>
+        <v>0.00227001961036069</v>
       </c>
       <c r="F17">
-        <v>3.27721810923713</v>
+        <v>0.0621922729907233</v>
       </c>
       <c r="G17">
-        <v>0.001048353528975871</v>
+        <v>0.9504097158398244</v>
       </c>
       <c r="H17">
-        <v>9.897658975713311</v>
+        <v>0.0733785103035173</v>
       </c>
       <c r="I17">
-        <v>0.001431266803675258</v>
+        <v>-0.004307979001204751</v>
       </c>
       <c r="J17">
-        <v>0.005690477437183613</v>
+        <v>0.004590334359808446</v>
       </c>
       <c r="K17">
-        <v>-0.003428382715523928</v>
+        <v>-0.007606132122346679</v>
       </c>
       <c r="L17">
-        <v>0.004898063980271429</v>
+        <v>-0.01400070584460253</v>
       </c>
       <c r="M17">
-        <v>0.004898063980271429</v>
+        <v>-0.01400070584460253</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>TJK</t>
         </is>
       </c>
     </row>
@@ -1241,41 +1241,41 @@
         </is>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.001331923604437295</v>
+        <v>-0.00536241203229895</v>
       </c>
       <c r="E18">
-        <v>0.004510245576678815</v>
+        <v>0.003909943918982047</v>
       </c>
       <c r="F18">
-        <v>0.2953106614247989</v>
+        <v>-1.37148054893203</v>
       </c>
       <c r="G18">
-        <v>0.7677565728730797</v>
+        <v>0.1702252029615734</v>
       </c>
       <c r="H18">
-        <v>0.3812791365161633</v>
+        <v>2.554483441554073</v>
       </c>
       <c r="I18">
-        <v>-0.007507995287284268</v>
+        <v>-0.01302576129507516</v>
       </c>
       <c r="J18">
-        <v>0.01017184249615886</v>
+        <v>0.002300937230477254</v>
       </c>
       <c r="K18">
-        <v>0.04535667479210241</v>
+        <v>0.05535573510409444</v>
       </c>
       <c r="L18">
-        <v>0.03948940575765544</v>
+        <v>0.01109481033673672</v>
       </c>
       <c r="M18">
-        <v>0.03948940575765544</v>
+        <v>0.01109481033673672</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>THA</t>
         </is>
       </c>
     </row>
@@ -1294,38 +1294,38 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.002293722218432423</v>
+        <v>0.0005451556537298456</v>
       </c>
       <c r="E19">
-        <v>0.001535678162207705</v>
+        <v>0.006173535003162665</v>
       </c>
       <c r="F19">
-        <v>1.493621694232433</v>
+        <v>0.08830526650461455</v>
       </c>
       <c r="G19">
-        <v>0.1352745258804144</v>
+        <v>0.9296340532448877</v>
       </c>
       <c r="H19">
-        <v>2.886037910016257</v>
+        <v>0.1052651780944608</v>
       </c>
       <c r="I19">
-        <v>-0.0007161516713393382</v>
+        <v>-0.01155475060976635</v>
       </c>
       <c r="J19">
-        <v>0.005303596108204183</v>
+        <v>0.01264506191722604</v>
       </c>
       <c r="K19">
-        <v>0.03801001862371338</v>
+        <v>0.01989840460102375</v>
       </c>
       <c r="L19">
-        <v>0.05495594889235605</v>
+        <v>0.03057790291178076</v>
       </c>
       <c r="M19">
-        <v>0.05495594889235605</v>
+        <v>0.03057790291178076</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>THA</t>
         </is>
       </c>
     </row>
@@ -1341,41 +1341,41 @@
         </is>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.002070728471101613</v>
+        <v>-0.001379860221469002</v>
       </c>
       <c r="E20">
-        <v>0.005182958562615293</v>
+        <v>0.001825125616062776</v>
       </c>
       <c r="F20">
-        <v>0.3995263411978225</v>
+        <v>-0.7560357541009611</v>
       </c>
       <c r="G20">
-        <v>0.6895054186044142</v>
+        <v>0.4496277592685832</v>
       </c>
       <c r="H20">
-        <v>0.5363662054207686</v>
+        <v>1.153196986991235</v>
       </c>
       <c r="I20">
-        <v>-0.008087683644987846</v>
+        <v>-0.004957040696213521</v>
       </c>
       <c r="J20">
-        <v>0.01222914058719107</v>
+        <v>0.002197320253275517</v>
       </c>
       <c r="K20">
-        <v>0.07765082612220818</v>
+        <v>0.1081484642298173</v>
       </c>
       <c r="L20">
-        <v>0.07202275454209357</v>
+        <v>0.1087982824336318</v>
       </c>
       <c r="M20">
-        <v>0.07202275454209357</v>
+        <v>0.1087982824336318</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>TGO</t>
         </is>
       </c>
     </row>
@@ -1394,38 +1394,38 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>-0.005945934742353979</v>
+        <v>0.007437542295462815</v>
       </c>
       <c r="E21">
-        <v>0.01303021180348628</v>
+        <v>0.005119455380522397</v>
       </c>
       <c r="F21">
-        <v>-0.4563191168360841</v>
+        <v>1.452799515307794</v>
       </c>
       <c r="G21">
-        <v>0.6481605190315671</v>
+        <v>0.1462794265818111</v>
       </c>
       <c r="H21">
-        <v>0.6255769494739493</v>
+        <v>2.773201218476896</v>
       </c>
       <c r="I21">
-        <v>-0.03148468058811579</v>
+        <v>-0.002596405870820878</v>
       </c>
       <c r="J21">
-        <v>0.01959281110340784</v>
+        <v>0.01747149046174651</v>
       </c>
       <c r="K21">
-        <v>0.1942405782499749</v>
+        <v>0.1727815814632112</v>
       </c>
       <c r="L21">
-        <v>0.1632562254216595</v>
+        <v>0.1686401916328241</v>
       </c>
       <c r="M21">
-        <v>0.1632562254216595</v>
+        <v>0.1686401916328241</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>TGO</t>
         </is>
       </c>
     </row>
@@ -1441,41 +1441,41 @@
         </is>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-0.0105491063064923</v>
+        <v>0.02705947892044315</v>
       </c>
       <c r="E22">
-        <v>0.006755919382900138</v>
+        <v>0.02229842569376127</v>
       </c>
       <c r="F22">
-        <v>-1.561461247331203</v>
+        <v>1.213515218162417</v>
       </c>
       <c r="G22">
-        <v>0.1184149605288565</v>
+        <v>0.2249328996244689</v>
       </c>
       <c r="H22">
-        <v>3.078076732524334</v>
+        <v>2.152433403741626</v>
       </c>
       <c r="I22">
-        <v>-0.02379046497943264</v>
+        <v>-0.0166446323512715</v>
       </c>
       <c r="J22">
-        <v>0.002692252366448033</v>
+        <v>0.0707635901921578</v>
       </c>
       <c r="K22">
-        <v>0.05089313124052285</v>
+        <v>0.2211351207150119</v>
       </c>
       <c r="L22">
-        <v>0.06039928765714747</v>
+        <v>0.4202181898547577</v>
       </c>
       <c r="M22">
-        <v>0.06039928765714747</v>
+        <v>0.4202181898547577</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>TCD</t>
         </is>
       </c>
     </row>
@@ -1494,38 +1494,38 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.003899000076021603</v>
+        <v>-0.01047531158226918</v>
       </c>
       <c r="E23">
-        <v>0.005440082273893758</v>
+        <v>0.01304655375488153</v>
       </c>
       <c r="F23">
-        <v>0.7167171156091505</v>
+        <v>-0.8029179030017568</v>
       </c>
       <c r="G23">
-        <v>0.4735486628265619</v>
+        <v>0.4220221875080554</v>
       </c>
       <c r="H23">
-        <v>1.078415407290436</v>
+        <v>1.244609245323669</v>
       </c>
       <c r="I23">
-        <v>-0.006763365253744921</v>
+        <v>-0.03604608706420279</v>
       </c>
       <c r="J23">
-        <v>0.01456136540578813</v>
+        <v>0.01509546389966443</v>
       </c>
       <c r="K23">
-        <v>0.01206277783736488</v>
+        <v>0.1106271854278808</v>
       </c>
       <c r="L23">
-        <v>0.03519139422465669</v>
+        <v>0.1152368415118945</v>
       </c>
       <c r="M23">
-        <v>0.03519139422465669</v>
+        <v>0.1152368415118945</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>TCD</t>
         </is>
       </c>
     </row>
@@ -1541,41 +1541,41 @@
         </is>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.002668418626601907</v>
+        <v>-0.01047274199562941</v>
       </c>
       <c r="E24">
-        <v>0.001729441379846644</v>
+        <v>0.01225243730415706</v>
       </c>
       <c r="F24">
-        <v>1.542936729569016</v>
+        <v>-0.8547476502553641</v>
       </c>
       <c r="G24">
-        <v>0.1228461280001061</v>
+        <v>0.392690864898704</v>
       </c>
       <c r="H24">
-        <v>3.02507570892582</v>
+        <v>1.348534057663875</v>
       </c>
       <c r="I24">
-        <v>-0.0007212241912707708</v>
+        <v>-0.03448707783461227</v>
       </c>
       <c r="J24">
-        <v>0.006058061444474584</v>
+        <v>0.01354159384335344</v>
       </c>
       <c r="K24">
-        <v>0.05088090047110234</v>
+        <v>0.114161793200565</v>
       </c>
       <c r="L24">
-        <v>0.06147841182161582</v>
+        <v>0.08988673250536051</v>
       </c>
       <c r="M24">
-        <v>0.06147841182161582</v>
+        <v>0.08988673250536051</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>SOM</t>
         </is>
       </c>
     </row>
@@ -1594,38 +1594,38 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>-0.007507385094102226</v>
+        <v>0.01071429397606683</v>
       </c>
       <c r="E25">
-        <v>0.003398145288350915</v>
+        <v>0.007290751669658732</v>
       </c>
       <c r="F25">
-        <v>-2.209259598121975</v>
+        <v>1.469573297998277</v>
       </c>
       <c r="G25">
-        <v>0.0271565896323833</v>
+        <v>0.141677356547926</v>
       </c>
       <c r="H25">
-        <v>5.20255387474928</v>
+        <v>2.819318895603984</v>
       </c>
       <c r="I25">
-        <v>-0.01416762747350449</v>
+        <v>-0.003575316716689547</v>
       </c>
       <c r="J25">
-        <v>-0.0008471427146999567</v>
+        <v>0.02500390466882321</v>
       </c>
       <c r="K25">
-        <v>0.08166955878590074</v>
+        <v>-0.01631302775091465</v>
       </c>
       <c r="L25">
-        <v>0.06056550853359657</v>
+        <v>-0.01485319124198472</v>
       </c>
       <c r="M25">
-        <v>0.06056550853359657</v>
+        <v>-0.01485319124198472</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>SOM</t>
         </is>
       </c>
     </row>
@@ -1641,41 +1641,41 @@
         </is>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-0.001267113781505418</v>
+        <v>-0.01773778434218826</v>
       </c>
       <c r="E26">
-        <v>0.004238228407709429</v>
+        <v>0.007488937741072366</v>
       </c>
       <c r="F26">
-        <v>-0.2989725091740008</v>
+        <v>-2.368531420004611</v>
       </c>
       <c r="G26">
-        <v>0.7649610212532515</v>
+        <v>0.01785886340683464</v>
       </c>
       <c r="H26">
-        <v>0.3865418580328294</v>
+        <v>5.80721592395734</v>
       </c>
       <c r="I26">
-        <v>-0.009573888818870438</v>
+        <v>-0.03241583259715285</v>
       </c>
       <c r="J26">
-        <v>0.007039661255859602</v>
+        <v>-0.003059736087223677</v>
       </c>
       <c r="K26">
-        <v>0.1266027028099237</v>
+        <v>0.08044724149854623</v>
       </c>
       <c r="L26">
-        <v>0.1201787513899199</v>
+        <v>0.03786791554433941</v>
       </c>
       <c r="M26">
-        <v>0.1201787513899199</v>
+        <v>0.03786791554433941</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>SLV</t>
         </is>
       </c>
     </row>
@@ -1694,38 +1694,38 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.01067498186718198</v>
+        <v>0.03298745348984125</v>
       </c>
       <c r="E27">
-        <v>0.005906538380793582</v>
+        <v>0.01257921623144932</v>
       </c>
       <c r="F27">
-        <v>1.807316092602403</v>
+        <v>2.62237749021034</v>
       </c>
       <c r="G27">
-        <v>0.07071300829459852</v>
+        <v>0.008731865475916057</v>
       </c>
       <c r="H27">
-        <v>3.821880553582733</v>
+        <v>6.839494380481318</v>
       </c>
       <c r="I27">
-        <v>-0.0009016206324769672</v>
+        <v>0.008332642722458917</v>
       </c>
       <c r="J27">
-        <v>0.02225158436684092</v>
+        <v>0.05764226425722359</v>
       </c>
       <c r="K27">
-        <v>0.008682435935301014</v>
+        <v>0.0156878950683778</v>
       </c>
       <c r="L27">
-        <v>-0.005214654600041167</v>
+        <v>0.05808623220460599</v>
       </c>
       <c r="M27">
-        <v>-0.005214654600041167</v>
+        <v>0.05808623220460599</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>SLV</t>
         </is>
       </c>
     </row>
@@ -1741,41 +1741,41 @@
         </is>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.008057959150554253</v>
+        <v>-0.007529789499762334</v>
       </c>
       <c r="E28">
-        <v>0.001863991844647366</v>
+        <v>0.001489574939820587</v>
       </c>
       <c r="F28">
-        <v>4.322958372212553</v>
+        <v>-5.054992064158427</v>
       </c>
       <c r="G28">
-        <v>1.539507901438396E-05</v>
+        <v>4.304086653931604E-07</v>
       </c>
       <c r="H28">
-        <v>15.98717120248329</v>
+        <v>21.14778954032747</v>
       </c>
       <c r="I28">
-        <v>0.004404602267569037</v>
+        <v>-0.0104493027340841</v>
       </c>
       <c r="J28">
-        <v>0.01171131603353947</v>
+        <v>-0.004610276265440565</v>
       </c>
       <c r="K28">
-        <v>0.0424217100410289</v>
+        <v>0.1080564384116799</v>
       </c>
       <c r="L28">
-        <v>0.05599931551438808</v>
+        <v>0.104199626715882</v>
       </c>
       <c r="M28">
-        <v>0.05599931551438808</v>
+        <v>0.104199626715882</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>SEN</t>
         </is>
       </c>
     </row>
@@ -1794,38 +1794,38 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.006170065195505806</v>
+        <v>-0.004742861987531132</v>
       </c>
       <c r="E29">
-        <v>0.00192692402861983</v>
+        <v>0.0027722899691874</v>
       </c>
       <c r="F29">
-        <v>3.202028260514842</v>
+        <v>-1.710810211141562</v>
       </c>
       <c r="G29">
-        <v>0.001364636095543347</v>
+        <v>0.08711615396334474</v>
       </c>
       <c r="H29">
-        <v>9.517268002490921</v>
+        <v>3.520915926956015</v>
       </c>
       <c r="I29">
-        <v>0.002393363498466111</v>
+        <v>-0.01017645048184009</v>
       </c>
       <c r="J29">
-        <v>0.0099467668925455</v>
+        <v>0.000690726506777828</v>
       </c>
       <c r="K29">
-        <v>0.07408318186300562</v>
+        <v>0.1048973560803542</v>
       </c>
       <c r="L29">
-        <v>0.06008376229701183</v>
+        <v>0.1025271208068445</v>
       </c>
       <c r="M29">
-        <v>0.06008376229701183</v>
+        <v>0.1025271208068445</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>SEN</t>
         </is>
       </c>
     </row>
@@ -1841,41 +1841,41 @@
         </is>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-0.04216203510423848</v>
+        <v>0.006078931412901641</v>
       </c>
       <c r="E30">
-        <v>0.01324215023288191</v>
+        <v>0.003376505877901869</v>
       </c>
       <c r="F30">
-        <v>-3.183926655623109</v>
+        <v>1.800361566874877</v>
       </c>
       <c r="G30">
-        <v>0.001452918210530399</v>
+        <v>0.07180356527721299</v>
       </c>
       <c r="H30">
-        <v>9.426830793379807</v>
+        <v>3.799800709513945</v>
       </c>
       <c r="I30">
-        <v>-0.06811617263855571</v>
+        <v>-0.0005388985013738178</v>
       </c>
       <c r="J30">
-        <v>-0.01620789756992125</v>
+        <v>0.0126967613271771</v>
       </c>
       <c r="K30">
-        <v>0.03315252225917326</v>
+        <v>0.03882164238353586</v>
       </c>
       <c r="L30">
-        <v>-0.003525397478654491</v>
+        <v>0.0265871424444566</v>
       </c>
       <c r="M30">
-        <v>-0.003525397478654491</v>
+        <v>0.0265871424444566</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>SDN</t>
         </is>
       </c>
     </row>
@@ -1894,38 +1894,38 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>-0.0144488553640383</v>
+        <v>-0.002017723811551231</v>
       </c>
       <c r="E31">
-        <v>0.005902539264202923</v>
+        <v>0.007527284737893816</v>
       </c>
       <c r="F31">
-        <v>-2.447904997712788</v>
+        <v>-0.2680546680257246</v>
       </c>
       <c r="G31">
-        <v>0.01436895369432838</v>
+        <v>0.7886572389121276</v>
       </c>
       <c r="H31">
-        <v>6.120901177037309</v>
+        <v>0.3425296731837971</v>
       </c>
       <c r="I31">
-        <v>-0.02601761973920957</v>
+        <v>-0.01677093079920113</v>
       </c>
       <c r="J31">
-        <v>-0.00288009098886702</v>
+        <v>0.01273548317609867</v>
       </c>
       <c r="K31">
-        <v>0.02364939804885625</v>
+        <v>0.08446507802407237</v>
       </c>
       <c r="L31">
-        <v>0.007727156981952463</v>
+        <v>0.1008747158123663</v>
       </c>
       <c r="M31">
-        <v>0.007727156981952463</v>
+        <v>0.1008747158123663</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>SDN</t>
         </is>
       </c>
     </row>
@@ -1941,41 +1941,41 @@
         </is>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-0.003431730260693479</v>
+        <v>-0.01156788858890946</v>
       </c>
       <c r="E32">
-        <v>0.00394661874577317</v>
+        <v>0.0005963954941088169</v>
       </c>
       <c r="F32">
-        <v>-0.8695368065052808</v>
+        <v>-19.39633800586497</v>
       </c>
       <c r="G32">
-        <v>0.3845535852938575</v>
+        <v>8.286830400866183E-84</v>
       </c>
       <c r="H32">
-        <v>1.378743451573325</v>
+        <v>275.9911395744085</v>
       </c>
       <c r="I32">
-        <v>-0.01116696086311953</v>
+        <v>-0.01273680227790471</v>
       </c>
       <c r="J32">
-        <v>0.004303500341732571</v>
+        <v>-0.01039897489991421</v>
       </c>
       <c r="K32">
-        <v>0.01332140117332191</v>
+        <v>0.007932367332650632</v>
       </c>
       <c r="L32">
-        <v>0.009558923074272162</v>
+        <v>0.02109366505294837</v>
       </c>
       <c r="M32">
-        <v>0.009558923074272162</v>
+        <v>0.02109366505294837</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>RWA</t>
         </is>
       </c>
     </row>
@@ -1994,38 +1994,38 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>-0.006594640326210052</v>
+        <v>0.003284198285819763</v>
       </c>
       <c r="E33">
-        <v>0.004795353908805427</v>
+        <v>0.001107244742007449</v>
       </c>
       <c r="F33">
-        <v>-1.375214520475892</v>
+        <v>2.966099689816967</v>
       </c>
       <c r="G33">
-        <v>0.1690649479008894</v>
+        <v>0.003016027098672317</v>
       </c>
       <c r="H33">
-        <v>2.564350516934044</v>
+        <v>8.373134893540744</v>
       </c>
       <c r="I33">
-        <v>-0.01599336128059206</v>
+        <v>0.001114038469413819</v>
       </c>
       <c r="J33">
-        <v>0.002804080628171955</v>
+        <v>0.005454358102225706</v>
       </c>
       <c r="K33">
-        <v>0.0649117151984409</v>
+        <v>-0.003428382715523928</v>
       </c>
       <c r="L33">
-        <v>0.0646198284520125</v>
+        <v>0.004898063980271429</v>
       </c>
       <c r="M33">
-        <v>0.0646198284520125</v>
+        <v>0.004898063980271429</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>RWA</t>
         </is>
       </c>
     </row>
@@ -2041,41 +2041,41 @@
         </is>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-0.0009339371345215904</v>
+        <v>-0.002031095544488103</v>
       </c>
       <c r="E34">
-        <v>0.002876305959448951</v>
+        <v>0.002838670034300398</v>
       </c>
       <c r="F34">
-        <v>-0.3247002049463876</v>
+        <v>-0.7155095590349848</v>
       </c>
       <c r="G34">
-        <v>0.745407979531659</v>
+        <v>0.4742942363099028</v>
       </c>
       <c r="H34">
-        <v>0.4238978318051243</v>
+        <v>1.076145758195928</v>
       </c>
       <c r="I34">
-        <v>-0.006571393223559458</v>
+        <v>-0.007594786575709962</v>
       </c>
       <c r="J34">
-        <v>0.004703518954516278</v>
+        <v>0.003532595486733756</v>
       </c>
       <c r="K34">
-        <v>0.04406966107100545</v>
+        <v>0.013385848500678</v>
       </c>
       <c r="L34">
-        <v>0.06036930661892016</v>
+        <v>0.02089852974741278</v>
       </c>
       <c r="M34">
-        <v>0.06036930661892016</v>
+        <v>0.02089852974741278</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>PHL</t>
         </is>
       </c>
     </row>
@@ -2094,38 +2094,38 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.01254646002566651</v>
+        <v>0.001714434608186309</v>
       </c>
       <c r="E35">
-        <v>0.00903499703219323</v>
+        <v>0.004015932592174054</v>
       </c>
       <c r="F35">
-        <v>1.388651261418386</v>
+        <v>0.4269082134314877</v>
       </c>
       <c r="G35">
-        <v>0.1649388214985803</v>
+        <v>0.6694461829357914</v>
       </c>
       <c r="H35">
-        <v>2.599997090340377</v>
+        <v>0.5789600135459714</v>
       </c>
       <c r="I35">
-        <v>-0.005161808757858495</v>
+        <v>-0.006156648636815418</v>
       </c>
       <c r="J35">
-        <v>0.03025472880919151</v>
+        <v>0.009585517853188036</v>
       </c>
       <c r="K35">
-        <v>-0.01775925770199283</v>
+        <v>0.04535667479210241</v>
       </c>
       <c r="L35">
-        <v>-0.001452945154172131</v>
+        <v>0.03948940575765544</v>
       </c>
       <c r="M35">
-        <v>-0.001452945154172131</v>
+        <v>0.03948940575765544</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>PHL</t>
         </is>
       </c>
     </row>
@@ -2141,41 +2141,41 @@
         </is>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-0.003615786835501281</v>
+        <v>-0.0008563909488735892</v>
       </c>
       <c r="E36">
-        <v>0.001665545692308024</v>
+        <v>0.003305172249681532</v>
       </c>
       <c r="F36">
-        <v>-2.170932236923935</v>
+        <v>-0.259106298909567</v>
       </c>
       <c r="G36">
-        <v>0.02993629506485387</v>
+        <v>0.7955532248980612</v>
       </c>
       <c r="H36">
-        <v>5.061960506197516</v>
+        <v>0.3299696404746255</v>
       </c>
       <c r="I36">
-        <v>-0.006880196407030838</v>
+        <v>-0.007334409520950618</v>
       </c>
       <c r="J36">
-        <v>-0.0003513772639717251</v>
+        <v>0.005621627623203439</v>
       </c>
       <c r="K36">
-        <v>0.04134904669639711</v>
+        <v>0.03114370570841041</v>
       </c>
       <c r="L36">
-        <v>0.03272460352180087</v>
+        <v>0.03176454571996731</v>
       </c>
       <c r="M36">
-        <v>0.03272460352180087</v>
+        <v>0.03176454571996731</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
@@ -2194,38 +2194,38 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>-0.006537710693255428</v>
+        <v>0.002323681031411235</v>
       </c>
       <c r="E37">
-        <v>0.006303601832153919</v>
+        <v>0.001519265757924733</v>
       </c>
       <c r="F37">
-        <v>-1.037138903651456</v>
+        <v>1.529476340324623</v>
       </c>
       <c r="G37">
-        <v>0.2996711266472181</v>
+        <v>0.1261464000256609</v>
       </c>
       <c r="H37">
-        <v>1.738548008198243</v>
+        <v>2.98682905971254</v>
       </c>
       <c r="I37">
-        <v>-0.01889254325715781</v>
+        <v>-0.000654025137066189</v>
       </c>
       <c r="J37">
-        <v>0.005817121870646949</v>
+        <v>0.005301387199888659</v>
       </c>
       <c r="K37">
-        <v>0.03036785351799426</v>
+        <v>0.03801001862371338</v>
       </c>
       <c r="L37">
-        <v>0.02332252438864759</v>
+        <v>0.05495594889235605</v>
       </c>
       <c r="M37">
-        <v>0.02332252438864759</v>
+        <v>0.05495594889235605</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
@@ -2241,41 +2241,41 @@
         </is>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-0.00140750533868298</v>
+        <v>-0.00868070923797074</v>
       </c>
       <c r="E38">
-        <v>0.002055993661362845</v>
+        <v>0.006054791012368327</v>
       </c>
       <c r="F38">
-        <v>-0.6845864192742669</v>
+        <v>-1.43369262791042</v>
       </c>
       <c r="G38">
-        <v>0.4936049392660706</v>
+        <v>0.1516599968982785</v>
       </c>
       <c r="H38">
-        <v>1.018571263975775</v>
+        <v>2.721087496363323</v>
       </c>
       <c r="I38">
-        <v>-0.005437178867396796</v>
+        <v>-0.02054788155612947</v>
       </c>
       <c r="J38">
-        <v>0.002622168190030836</v>
+        <v>0.00318646308018799</v>
       </c>
       <c r="K38">
-        <v>0.06534139151768766</v>
+        <v>0.04401075110558276</v>
       </c>
       <c r="L38">
-        <v>0.06646349538774424</v>
+        <v>0.03476081400143975</v>
       </c>
       <c r="M38">
-        <v>0.06646349538774424</v>
+        <v>0.03476081400143975</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
@@ -2294,38 +2294,38 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>-0.005363905978063564</v>
+        <v>0.002173054261693527</v>
       </c>
       <c r="E39">
-        <v>0.001308790334710026</v>
+        <v>0.005193314035703823</v>
       </c>
       <c r="F39">
-        <v>-4.098369185505931</v>
+        <v>0.4184330558009524</v>
       </c>
       <c r="G39">
-        <v>4.160712760204115E-05</v>
+        <v>0.6756305224330019</v>
       </c>
       <c r="H39">
-        <v>14.55280978079892</v>
+        <v>0.56569358976752</v>
       </c>
       <c r="I39">
-        <v>-0.007929087897409336</v>
+        <v>-0.008005654208692323</v>
       </c>
       <c r="J39">
-        <v>-0.002798724058717791</v>
+        <v>0.01235176273207938</v>
       </c>
       <c r="K39">
-        <v>0.06406906383799135</v>
+        <v>0.07765082612220818</v>
       </c>
       <c r="L39">
-        <v>0.03357327192428627</v>
+        <v>0.07202275454209357</v>
       </c>
       <c r="M39">
-        <v>0.03357327192428627</v>
+        <v>0.07202275454209357</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
@@ -2341,41 +2341,41 @@
         </is>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-0.01008148469408621</v>
+        <v>-0.01701871433240373</v>
       </c>
       <c r="E40">
-        <v>0.007973084872205383</v>
+        <v>0.008938606042522459</v>
       </c>
       <c r="F40">
-        <v>-1.264439656127433</v>
+        <v>-1.903956193106938</v>
       </c>
       <c r="G40">
-        <v>0.206072266830516</v>
+        <v>0.05691588969932104</v>
       </c>
       <c r="H40">
-        <v>2.278777734591781</v>
+        <v>4.135024711405084</v>
       </c>
       <c r="I40">
-        <v>-0.0257084438892899</v>
+        <v>-0.03453806024773985</v>
       </c>
       <c r="J40">
-        <v>0.005545474501117474</v>
+        <v>0.0005006315829323878</v>
       </c>
       <c r="K40">
-        <v>0.1053719510612137</v>
+        <v>0.02020491097201819</v>
       </c>
       <c r="L40">
-        <v>0.07572822108637717</v>
+        <v>0.03500900755084639</v>
       </c>
       <c r="M40">
-        <v>0.07572822108637717</v>
+        <v>0.03500900755084639</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
@@ -2394,38 +2394,38 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>-0.003158806308791169</v>
+        <v>-0.005319957361079872</v>
       </c>
       <c r="E41">
-        <v>0.005684533010456066</v>
+        <v>0.01283804107180419</v>
       </c>
       <c r="F41">
-        <v>-0.5556843988733809</v>
+        <v>-0.4143901185021083</v>
       </c>
       <c r="G41">
-        <v>0.5784266235861948</v>
+        <v>0.6785884245162873</v>
       </c>
       <c r="H41">
-        <v>0.7897941372874621</v>
+        <v>0.5593912743807395</v>
       </c>
       <c r="I41">
-        <v>-0.01430028627821411</v>
+        <v>-0.03048205549386207</v>
       </c>
       <c r="J41">
-        <v>0.007982673660631767</v>
+        <v>0.01984214077170233</v>
       </c>
       <c r="K41">
-        <v>0.1160819716774518</v>
+        <v>0.1942405782499749</v>
       </c>
       <c r="L41">
-        <v>0.1111149566346212</v>
+        <v>0.1632562254216595</v>
       </c>
       <c r="M41">
-        <v>0.1111149566346212</v>
+        <v>0.1632562254216595</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
@@ -2441,41 +2441,41 @@
         </is>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.0035054220167122</v>
+        <v>-0.02205140696904536</v>
       </c>
       <c r="E42">
-        <v>0.007027725805027592</v>
+        <v>0.01374633641633881</v>
       </c>
       <c r="F42">
-        <v>0.4987989164580727</v>
+        <v>-1.604166106602425</v>
       </c>
       <c r="G42">
-        <v>0.6179210509837201</v>
+        <v>0.1086774434891214</v>
       </c>
       <c r="H42">
-        <v>0.6945055716932569</v>
+        <v>3.201875561544127</v>
       </c>
       <c r="I42">
-        <v>-0.01026866745436463</v>
+        <v>-0.04899373126444081</v>
       </c>
       <c r="J42">
-        <v>0.01727951148778904</v>
+        <v>0.004890917326350094</v>
       </c>
       <c r="K42">
-        <v>0.03761998231093513</v>
+        <v>0.04385465104307293</v>
       </c>
       <c r="L42">
-        <v>0.03818667072640773</v>
+        <v>0.05750935493439997</v>
       </c>
       <c r="M42">
-        <v>0.03818667072640773</v>
+        <v>0.05750935493439997</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
@@ -2494,38 +2494,38 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>9.234132028267953E-05</v>
+        <v>-0.008846422791032793</v>
       </c>
       <c r="E43">
-        <v>0.005651876696901919</v>
+        <v>0.006748186875645725</v>
       </c>
       <c r="F43">
-        <v>0.01633816964430532</v>
+        <v>-1.310933285348042</v>
       </c>
       <c r="G43">
-        <v>0.9869646066271095</v>
+        <v>0.1898803041733205</v>
       </c>
       <c r="H43">
-        <v>0.01892974552392509</v>
+        <v>2.396837828921485</v>
       </c>
       <c r="I43">
-        <v>-0.01098513345070628</v>
+        <v>-0.02207262602824428</v>
       </c>
       <c r="J43">
-        <v>0.01116981609127164</v>
+        <v>0.004379780446178698</v>
       </c>
       <c r="K43">
-        <v>0.1184569649741905</v>
+        <v>0.05089313124052285</v>
       </c>
       <c r="L43">
-        <v>0.1573355722941075</v>
+        <v>0.06039928765714747</v>
       </c>
       <c r="M43">
-        <v>0.1573355722941075</v>
+        <v>0.06039928765714747</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
@@ -2541,41 +2541,41 @@
         </is>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.008585680774543455</v>
+        <v>-0.0112558206882934</v>
       </c>
       <c r="E44">
-        <v>0.008653203289287818</v>
+        <v>0.004625569412739098</v>
       </c>
       <c r="F44">
-        <v>0.9921968186246183</v>
+        <v>-2.433391369567213</v>
       </c>
       <c r="G44">
-        <v>0.3211015241252769</v>
+        <v>0.01495812308490049</v>
       </c>
       <c r="H44">
-        <v>1.638898581979518</v>
+        <v>6.06292702965511</v>
       </c>
       <c r="I44">
-        <v>-0.008374286023364194</v>
+        <v>-0.02032177014525212</v>
       </c>
       <c r="J44">
-        <v>0.02554564757245111</v>
+        <v>-0.002189871231334684</v>
       </c>
       <c r="K44">
-        <v>0.08830901329567498</v>
+        <v>-0.003209137267745014</v>
       </c>
       <c r="L44">
-        <v>0.1054009814360813</v>
+        <v>-0.0009055953000044227</v>
       </c>
       <c r="M44">
-        <v>0.1054009814360813</v>
+        <v>-0.0009055953000044227</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
@@ -2594,38 +2594,38 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>-0.0103608863438224</v>
+        <v>0.004177736563887899</v>
       </c>
       <c r="E45">
-        <v>0.002823360579262021</v>
+        <v>0.005301806682141984</v>
       </c>
       <c r="F45">
-        <v>-3.669700009245919</v>
+        <v>0.7879835713285666</v>
       </c>
       <c r="G45">
-        <v>0.0002428352768071903</v>
+        <v>0.4307063155664258</v>
       </c>
       <c r="H45">
-        <v>12.0077343616711</v>
+        <v>1.21522361651409</v>
       </c>
       <c r="I45">
-        <v>-0.0158945713945461</v>
+        <v>-0.006213613586104185</v>
       </c>
       <c r="J45">
-        <v>-0.004827201293098697</v>
+        <v>0.01456908671387998</v>
       </c>
       <c r="K45">
-        <v>0.1365783801156776</v>
+        <v>0.01206277783736488</v>
       </c>
       <c r="L45">
-        <v>0.1853518512922678</v>
+        <v>0.03519139422465669</v>
       </c>
       <c r="M45">
-        <v>0.1853518512922678</v>
+        <v>0.03519139422465669</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
@@ -2641,41 +2641,41 @@
         </is>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.008491696950400033</v>
+        <v>-0.0003880272111355119</v>
       </c>
       <c r="E46">
-        <v>0.008579262758944023</v>
+        <v>0.005943834846062744</v>
       </c>
       <c r="F46">
-        <v>0.9897933177938044</v>
+        <v>-0.06528230026319541</v>
       </c>
       <c r="G46">
-        <v>0.3222751516307999</v>
+        <v>0.947949234623546</v>
       </c>
       <c r="H46">
-        <v>1.633635138264651</v>
+        <v>0.07711829411604446</v>
       </c>
       <c r="I46">
-        <v>-0.008323349071035987</v>
+        <v>-0.01203772943947266</v>
       </c>
       <c r="J46">
-        <v>0.02530674297183605</v>
+        <v>0.01126167501720164</v>
       </c>
       <c r="K46">
-        <v>0.09200143656528026</v>
+        <v>0.1136862484510646</v>
       </c>
       <c r="L46">
-        <v>0.1224472586561944</v>
+        <v>0.1322995848938631</v>
       </c>
       <c r="M46">
-        <v>0.1224472586561944</v>
+        <v>0.1322995848938631</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
@@ -2694,38 +2694,38 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>-0.006597158489569141</v>
+        <v>0.001930290522889482</v>
       </c>
       <c r="E47">
-        <v>0.01113123122747096</v>
+        <v>0.001757244841282026</v>
       </c>
       <c r="F47">
-        <v>-0.5926710491187982</v>
+        <v>1.098475566717958</v>
       </c>
       <c r="G47">
-        <v>0.5534013200826522</v>
+        <v>0.2719968810576459</v>
       </c>
       <c r="H47">
-        <v>0.8536020095328731</v>
+        <v>1.878337986457577</v>
       </c>
       <c r="I47">
-        <v>-0.02841397079899979</v>
+        <v>-0.001513846078042092</v>
       </c>
       <c r="J47">
-        <v>0.01521965381986151</v>
+        <v>0.005374427123821056</v>
       </c>
       <c r="K47">
-        <v>0.04968261606219979</v>
+        <v>0.05088090047110234</v>
       </c>
       <c r="L47">
-        <v>0.05530539562667597</v>
+        <v>0.06147841182161582</v>
       </c>
       <c r="M47">
-        <v>0.05530539562667597</v>
+        <v>0.06147841182161582</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
@@ -2741,41 +2741,41 @@
         </is>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0.004841433760058682</v>
+        <v>0.001703586781844785</v>
       </c>
       <c r="E48">
-        <v>0.003422556347090774</v>
+        <v>0.001371438018318609</v>
       </c>
       <c r="F48">
-        <v>1.414566560510823</v>
+        <v>1.242190138445624</v>
       </c>
       <c r="G48">
-        <v>0.1571956190173487</v>
+        <v>0.2141664172936419</v>
       </c>
       <c r="H48">
-        <v>2.669367084097576</v>
+        <v>2.223195821159289</v>
       </c>
       <c r="I48">
-        <v>-0.001866653415298203</v>
+        <v>-0.0009843823410886701</v>
       </c>
       <c r="J48">
-        <v>0.01154952093541557</v>
+        <v>0.00439155590477824</v>
       </c>
       <c r="K48">
-        <v>0.2153585230134558</v>
+        <v>0.05468501304205062</v>
       </c>
       <c r="L48">
-        <v>0.2190979589443663</v>
+        <v>0.06260292641142277</v>
       </c>
       <c r="M48">
-        <v>0.2190979589443663</v>
+        <v>0.06260292641142277</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
@@ -2794,38 +2794,38 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>-0.02965957326502069</v>
+        <v>-0.007142896245492801</v>
       </c>
       <c r="E49">
-        <v>0.01068863107550257</v>
+        <v>0.003371610431947824</v>
       </c>
       <c r="F49">
-        <v>-2.774871080825112</v>
+        <v>-2.11854138835555</v>
       </c>
       <c r="G49">
-        <v>0.005522359379487201</v>
+        <v>0.03412924358304098</v>
       </c>
       <c r="H49">
-        <v>7.500499507179209</v>
+        <v>4.872847749879075</v>
       </c>
       <c r="I49">
-        <v>-0.05060890521704135</v>
+        <v>-0.01375113126201007</v>
       </c>
       <c r="J49">
-        <v>-0.008710241313000036</v>
+        <v>-0.0005346612289755326</v>
       </c>
       <c r="K49">
-        <v>0.04626856288287395</v>
+        <v>0.08166955878590074</v>
       </c>
       <c r="L49">
-        <v>0.01936433306590717</v>
+        <v>0.06056550853359657</v>
       </c>
       <c r="M49">
-        <v>0.01936433306590717</v>
+        <v>0.06056550853359657</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
@@ -2841,41 +2841,41 @@
         </is>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0.003543788132137855</v>
+        <v>-0.003882201531072837</v>
       </c>
       <c r="E50">
-        <v>0.01210974257821819</v>
+        <v>0.003994087436650496</v>
       </c>
       <c r="F50">
-        <v>0.2926394272420019</v>
+        <v>-0.9719871166186866</v>
       </c>
       <c r="G50">
-        <v>0.7697977737886479</v>
+        <v>0.3310569579299117</v>
       </c>
       <c r="H50">
-        <v>0.3774485959245314</v>
+        <v>1.594848642647184</v>
       </c>
       <c r="I50">
-        <v>-0.02019087118322102</v>
+        <v>-0.01171046905801171</v>
       </c>
       <c r="J50">
-        <v>0.02727844744749673</v>
+        <v>0.003946065995866039</v>
       </c>
       <c r="K50">
-        <v>0.02833539791022924</v>
+        <v>0.09145217661407731</v>
       </c>
       <c r="L50">
-        <v>-0.002718935020557461</v>
+        <v>0.1555626042278076</v>
       </c>
       <c r="M50">
-        <v>-0.002718935020557461</v>
+        <v>0.1555626042278076</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
@@ -2894,38 +2894,38 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>-0.01920602412999644</v>
+        <v>-0.002855022129240875</v>
       </c>
       <c r="E51">
-        <v>0.00698351500605877</v>
+        <v>0.004287473622337125</v>
       </c>
       <c r="F51">
-        <v>-2.750194438378616</v>
+        <v>-0.6658984709239067</v>
       </c>
       <c r="G51">
-        <v>0.005955991140298536</v>
+        <v>0.5054759979388685</v>
       </c>
       <c r="H51">
-        <v>7.391442676789232</v>
+        <v>0.9842855061748658</v>
       </c>
       <c r="I51">
-        <v>-0.03289346202736664</v>
+        <v>-0.01125831601368713</v>
       </c>
       <c r="J51">
-        <v>-0.005518586232626233</v>
+        <v>0.005548271755205374</v>
       </c>
       <c r="K51">
-        <v>0.08950622425267181</v>
+        <v>0.1266027028099237</v>
       </c>
       <c r="L51">
-        <v>0.08816425716206526</v>
+        <v>0.1201787513899199</v>
       </c>
       <c r="M51">
-        <v>0.08816425716206526</v>
+        <v>0.1201787513899199</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
@@ -2941,41 +2941,41 @@
         </is>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-0.02390962094053953</v>
+        <v>0.001226824820945576</v>
       </c>
       <c r="E52">
-        <v>0.01007363170358556</v>
+        <v>0.004121578071641351</v>
       </c>
       <c r="F52">
-        <v>-2.373485714395262</v>
+        <v>0.297659003328551</v>
       </c>
       <c r="G52">
-        <v>0.01762107467591416</v>
+        <v>0.7659634363820582</v>
       </c>
       <c r="H52">
-        <v>5.826554275599708</v>
+        <v>0.3846525688066964</v>
       </c>
       <c r="I52">
-        <v>-0.04365357627308809</v>
+        <v>-0.006851319758941516</v>
       </c>
       <c r="J52">
-        <v>-0.004165665607990966</v>
+        <v>0.009304969400832667</v>
       </c>
       <c r="K52">
-        <v>0.09540443674234593</v>
+        <v>0.01045490429922506</v>
       </c>
       <c r="L52">
-        <v>0.07576659703631086</v>
+        <v>0.01372372932894548</v>
       </c>
       <c r="M52">
-        <v>0.07576659703631086</v>
+        <v>0.01372372932894548</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
@@ -2994,38 +2994,38 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0.004435624827165824</v>
+        <v>0.01102483215733954</v>
       </c>
       <c r="E53">
-        <v>0.002855202243589045</v>
+        <v>0.005984366203963737</v>
       </c>
       <c r="F53">
-        <v>1.553523865822604</v>
+        <v>1.842272311149216</v>
       </c>
       <c r="G53">
-        <v>0.1202980321682445</v>
+        <v>0.06543532780884455</v>
       </c>
       <c r="H53">
-        <v>3.055315051744402</v>
+        <v>3.933786448641265</v>
       </c>
       <c r="I53">
-        <v>-0.001160468738846661</v>
+        <v>-0.0007043100727280663</v>
       </c>
       <c r="J53">
-        <v>0.01003171839317831</v>
+        <v>0.02275397438740714</v>
       </c>
       <c r="K53">
-        <v>0.1316091121392883</v>
+        <v>0.008682435935301014</v>
       </c>
       <c r="L53">
-        <v>0.1346946813021371</v>
+        <v>-0.005214654600041167</v>
       </c>
       <c r="M53">
-        <v>0.1346946813021371</v>
+        <v>-0.005214654600041167</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
@@ -3041,41 +3041,41 @@
         </is>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.02137302932643297</v>
+        <v>0.01220106688572445</v>
       </c>
       <c r="E54">
-        <v>0.01464539443540087</v>
+        <v>0.001716771602722871</v>
       </c>
       <c r="F54">
-        <v>1.45936863774526</v>
+        <v>7.106983169090785</v>
       </c>
       <c r="G54">
-        <v>0.1444636731510404</v>
+        <v>1.186068918893328E-12</v>
       </c>
       <c r="H54">
-        <v>2.791221336788565</v>
+        <v>39.61694929566425</v>
       </c>
       <c r="I54">
-        <v>-0.007331416306336044</v>
+        <v>0.008836256374706522</v>
       </c>
       <c r="J54">
-        <v>0.05007747495920199</v>
+        <v>0.01556587739674239</v>
       </c>
       <c r="K54">
-        <v>0.1631438415324954</v>
+        <v>0.04539280778279804</v>
       </c>
       <c r="L54">
-        <v>0.161409330569447</v>
+        <v>0.0545934597887546</v>
       </c>
       <c r="M54">
-        <v>0.161409330569447</v>
+        <v>0.0545934597887546</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
@@ -3094,38 +3094,38 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>-0.005077691384393819</v>
+        <v>0.007337002652172788</v>
       </c>
       <c r="E55">
-        <v>0.004442663267062982</v>
+        <v>0.001662103528312251</v>
       </c>
       <c r="F55">
-        <v>-1.142938611179201</v>
+        <v>4.414287393772033</v>
       </c>
       <c r="G55">
-        <v>0.2530640800586059</v>
+        <v>1.013432556083513E-05</v>
       </c>
       <c r="H55">
-        <v>1.982425349188747</v>
+        <v>16.59039039376369</v>
       </c>
       <c r="I55">
-        <v>-0.01378515138327631</v>
+        <v>0.004079339598103826</v>
       </c>
       <c r="J55">
-        <v>0.003629768614488675</v>
+        <v>0.01059466570624175</v>
       </c>
       <c r="K55">
-        <v>0.05828647062734973</v>
+        <v>0.0424217100410289</v>
       </c>
       <c r="L55">
-        <v>0.05045889824080973</v>
+        <v>0.05599931551438808</v>
       </c>
       <c r="M55">
-        <v>0.05045889824080973</v>
+        <v>0.05599931551438808</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
@@ -3141,41 +3141,41 @@
         </is>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-0.00699929525806234</v>
+        <v>0.0006687055077763967</v>
       </c>
       <c r="E56">
-        <v>0.002567016798467517</v>
+        <v>0.00250140639831609</v>
       </c>
       <c r="F56">
-        <v>-2.72662619981328</v>
+        <v>0.2673318131058429</v>
       </c>
       <c r="G56">
-        <v>0.006398547920682702</v>
+        <v>0.7892136944823096</v>
       </c>
       <c r="H56">
-        <v>7.288039746005709</v>
+        <v>0.3415121048797394</v>
       </c>
       <c r="I56">
-        <v>-0.01203055573076799</v>
+        <v>-0.004233960943621193</v>
       </c>
       <c r="J56">
-        <v>-0.001968034785356692</v>
+        <v>0.005571371959173986</v>
       </c>
       <c r="K56">
-        <v>0.3248072593644615</v>
+        <v>0.02051599283124983</v>
       </c>
       <c r="L56">
-        <v>0.3251609090742451</v>
+        <v>0.01764719043449541</v>
       </c>
       <c r="M56">
-        <v>0.3251609090742451</v>
+        <v>0.01764719043449541</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
@@ -3194,38 +3194,38 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>-0.00327886213830973</v>
+        <v>0.005902069462863026</v>
       </c>
       <c r="E57">
-        <v>0.003582156505023893</v>
+        <v>0.001809571162269848</v>
       </c>
       <c r="F57">
-        <v>-0.9153319051557911</v>
+        <v>3.261584615141482</v>
       </c>
       <c r="G57">
-        <v>0.3600174145397834</v>
+        <v>0.001107913613577543</v>
       </c>
       <c r="H57">
-        <v>1.473861401492032</v>
+        <v>9.817938888944623</v>
       </c>
       <c r="I57">
-        <v>-0.01029975987514243</v>
+        <v>0.002355375157351839</v>
       </c>
       <c r="J57">
-        <v>0.003742035598522972</v>
+        <v>0.009448763768374212</v>
       </c>
       <c r="K57">
-        <v>0.2337534946347984</v>
+        <v>0.07408318186300562</v>
       </c>
       <c r="L57">
-        <v>0.2850653255540636</v>
+        <v>0.06008376229701183</v>
       </c>
       <c r="M57">
-        <v>0.2850653255540636</v>
+        <v>0.06008376229701183</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
@@ -3241,41 +3241,41 @@
         </is>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-0.01203470372056242</v>
+        <v>-0.01365827680842101</v>
       </c>
       <c r="E58">
-        <v>0.004233576444589137</v>
+        <v>0.01327259880641786</v>
       </c>
       <c r="F58">
-        <v>-2.842680149532618</v>
+        <v>-1.0290582129113</v>
       </c>
       <c r="G58">
-        <v>0.004473594078596503</v>
+        <v>0.3034523207932714</v>
       </c>
       <c r="H58">
-        <v>7.804349928435777</v>
+        <v>1.720458240544058</v>
       </c>
       <c r="I58">
-        <v>-0.02033236107775426</v>
+        <v>-0.03967209245024933</v>
       </c>
       <c r="J58">
-        <v>-0.003737046363370581</v>
+        <v>0.0123555388334073</v>
       </c>
       <c r="K58">
-        <v>0.1475868796214487</v>
+        <v>0.09798440314869827</v>
       </c>
       <c r="L58">
-        <v>0.1040695315105332</v>
+        <v>0.05740979949862769</v>
       </c>
       <c r="M58">
-        <v>0.1040695315105332</v>
+        <v>0.05740979949862769</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
@@ -3294,38 +3294,38 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.003238687845086545</v>
+        <v>-0.04256701831543305</v>
       </c>
       <c r="E59">
-        <v>0.003128035296176398</v>
+        <v>0.01336148291677695</v>
       </c>
       <c r="F59">
-        <v>1.035374456626306</v>
+        <v>-3.185800451983143</v>
       </c>
       <c r="G59">
-        <v>0.3004940699632094</v>
+        <v>0.001443541267117214</v>
       </c>
       <c r="H59">
-        <v>1.73459157423072</v>
+        <v>9.436171933572876</v>
       </c>
       <c r="I59">
-        <v>-0.002892148677789275</v>
+        <v>-0.06875504361236306</v>
       </c>
       <c r="J59">
-        <v>0.009369524367962364</v>
+        <v>-0.01637899301850305</v>
       </c>
       <c r="K59">
-        <v>-0.006069614936454866</v>
+        <v>0.03315252225917326</v>
       </c>
       <c r="L59">
-        <v>-0.02694908754229203</v>
+        <v>-0.003525397478654491</v>
       </c>
       <c r="M59">
-        <v>-0.02694908754229203</v>
+        <v>-0.003525397478654491</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
@@ -3341,41 +3341,41 @@
         </is>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-0.0006358925027674772</v>
+        <v>-0.007513114526943107</v>
       </c>
       <c r="E60">
-        <v>0.008927953417442631</v>
+        <v>0.003806403276035224</v>
       </c>
       <c r="F60">
-        <v>-0.071224890300741</v>
+        <v>-1.973809389626424</v>
       </c>
       <c r="G60">
-        <v>0.943218772124066</v>
+        <v>0.04840342077731422</v>
       </c>
       <c r="H60">
-        <v>0.08433566348572248</v>
+        <v>4.3687471802072</v>
       </c>
       <c r="I60">
-        <v>-0.01813435965660632</v>
+        <v>-0.01497352785860742</v>
       </c>
       <c r="J60">
-        <v>0.01686257465107137</v>
+        <v>-5.270119527879535E-05</v>
       </c>
       <c r="K60">
-        <v>0.06233835290577359</v>
+        <v>0.004553579375167562</v>
       </c>
       <c r="L60">
-        <v>0.03890739523623962</v>
+        <v>-0.001894929137487206</v>
       </c>
       <c r="M60">
-        <v>0.03890739523623962</v>
+        <v>-0.001894929137487206</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
@@ -3394,38 +3394,38 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.0001945943046742114</v>
+        <v>-0.01464079251164949</v>
       </c>
       <c r="E61">
-        <v>0.01090586315968316</v>
+        <v>0.005949992295843732</v>
       </c>
       <c r="F61">
-        <v>0.01784309062244504</v>
+        <v>-2.46064058299312</v>
       </c>
       <c r="G61">
-        <v>0.9857640288776653</v>
+        <v>0.01386892250455737</v>
       </c>
       <c r="H61">
-        <v>0.02068575772752126</v>
+        <v>6.172000482698328</v>
       </c>
       <c r="I61">
-        <v>-0.02118050470862697</v>
+        <v>-0.026302563119794</v>
       </c>
       <c r="J61">
-        <v>0.0215696933179754</v>
+        <v>-0.002979021903504991</v>
       </c>
       <c r="K61">
-        <v>0.1080678849519673</v>
+        <v>0.02364939804885625</v>
       </c>
       <c r="L61">
-        <v>0.1405061880203963</v>
+        <v>0.007727156981952463</v>
       </c>
       <c r="M61">
-        <v>0.1405061880203963</v>
+        <v>0.007727156981952463</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>AGO</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
@@ -3441,39 +3441,3089 @@
         </is>
       </c>
       <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.001604232244385422</v>
+      </c>
+      <c r="E62">
+        <v>0.001427224370717026</v>
+      </c>
+      <c r="F62">
+        <v>1.124022457365599</v>
+      </c>
+      <c r="G62">
+        <v>0.2610034989755792</v>
+      </c>
+      <c r="H62">
+        <v>1.937858947399175</v>
+      </c>
+      <c r="I62">
+        <v>-0.00119307612007779</v>
+      </c>
+      <c r="J62">
+        <v>0.004401540608848634</v>
+      </c>
+      <c r="K62">
+        <v>0.01604451755864994</v>
+      </c>
+      <c r="L62">
+        <v>0.01336386319490149</v>
+      </c>
+      <c r="M62">
+        <v>0.01336386319490149</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>LSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C63">
         <v>1</v>
       </c>
-      <c r="D62">
-        <v>-0.008848067776743828</v>
-      </c>
-      <c r="E62">
-        <v>0.003117115684948486</v>
-      </c>
-      <c r="F62">
-        <v>-2.838543278797191</v>
-      </c>
-      <c r="G62">
-        <v>0.00453199730604146</v>
-      </c>
-      <c r="H62">
-        <v>7.785637281085693</v>
-      </c>
-      <c r="I62">
-        <v>-0.01495750225488776</v>
-      </c>
-      <c r="J62">
-        <v>-0.002738633298599896</v>
-      </c>
-      <c r="K62">
+      <c r="D63">
+        <v>-0.003682964080478368</v>
+      </c>
+      <c r="E63">
+        <v>0.004534400964426289</v>
+      </c>
+      <c r="F63">
+        <v>-0.8122272620732718</v>
+      </c>
+      <c r="G63">
+        <v>0.4166612391107957</v>
+      </c>
+      <c r="H63">
+        <v>1.263053198695247</v>
+      </c>
+      <c r="I63">
+        <v>-0.01257022666221758</v>
+      </c>
+      <c r="J63">
+        <v>0.005204298501260843</v>
+      </c>
+      <c r="K63">
+        <v>0.01332140117332191</v>
+      </c>
+      <c r="L63">
+        <v>0.009558923074272162</v>
+      </c>
+      <c r="M63">
+        <v>0.009558923074272162</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>LSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0.004838362438239455</v>
+      </c>
+      <c r="E64">
+        <v>0.004986494030479833</v>
+      </c>
+      <c r="F64">
+        <v>0.9702934383687362</v>
+      </c>
+      <c r="G64">
+        <v>0.3319002470318205</v>
+      </c>
+      <c r="H64">
+        <v>1.591178391679496</v>
+      </c>
+      <c r="I64">
+        <v>-0.004934986270624991</v>
+      </c>
+      <c r="J64">
+        <v>0.0146117111471039</v>
+      </c>
+      <c r="K64">
+        <v>-0.0112638504993249</v>
+      </c>
+      <c r="L64">
+        <v>-0.00131037745456376</v>
+      </c>
+      <c r="M64">
+        <v>-0.00131037745456376</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>LAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>-0.006571335682324677</v>
+      </c>
+      <c r="E65">
+        <v>0.004819092066188175</v>
+      </c>
+      <c r="F65">
+        <v>-1.363604511403846</v>
+      </c>
+      <c r="G65">
+        <v>0.1726920714706128</v>
+      </c>
+      <c r="H65">
+        <v>2.533726246604207</v>
+      </c>
+      <c r="I65">
+        <v>-0.01601658257023621</v>
+      </c>
+      <c r="J65">
+        <v>0.002873911205586858</v>
+      </c>
+      <c r="K65">
+        <v>0.0649117151984409</v>
+      </c>
+      <c r="L65">
+        <v>0.0646198284520125</v>
+      </c>
+      <c r="M65">
+        <v>0.0646198284520125</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>LAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0.006226778930275994</v>
+      </c>
+      <c r="E66">
+        <v>0.001396123201811967</v>
+      </c>
+      <c r="F66">
+        <v>4.460049745032912</v>
+      </c>
+      <c r="G66">
+        <v>8.194063183619112E-06</v>
+      </c>
+      <c r="H66">
+        <v>16.89698955198283</v>
+      </c>
+      <c r="I66">
+        <v>0.003490427736743794</v>
+      </c>
+      <c r="J66">
+        <v>0.008963130123808193</v>
+      </c>
+      <c r="K66">
+        <v>0.08552138568197462</v>
+      </c>
+      <c r="L66">
+        <v>0.1001923219725435</v>
+      </c>
+      <c r="M66">
+        <v>0.1001923219725435</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>-0.0007917261333090867</v>
+      </c>
+      <c r="E67">
+        <v>0.002750204061386372</v>
+      </c>
+      <c r="F67">
+        <v>-0.2878790502949004</v>
+      </c>
+      <c r="G67">
+        <v>0.7734393238262766</v>
+      </c>
+      <c r="H67">
+        <v>0.3706399779363615</v>
+      </c>
+      <c r="I67">
+        <v>-0.006182027043762158</v>
+      </c>
+      <c r="J67">
+        <v>0.004598574777143986</v>
+      </c>
+      <c r="K67">
+        <v>0.04406966107100545</v>
+      </c>
+      <c r="L67">
+        <v>0.06036930661892016</v>
+      </c>
+      <c r="M67">
+        <v>0.06036930661892016</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>-0.005240200154743429</v>
+      </c>
+      <c r="E68">
+        <v>0.006781716876613491</v>
+      </c>
+      <c r="F68">
+        <v>-0.7726952112692986</v>
+      </c>
+      <c r="G68">
+        <v>0.4397027813936418</v>
+      </c>
+      <c r="H68">
+        <v>1.18539943636427</v>
+      </c>
+      <c r="I68">
+        <v>-0.01853212098625334</v>
+      </c>
+      <c r="J68">
+        <v>0.008051720676766475</v>
+      </c>
+      <c r="K68">
+        <v>0.01392643987870788</v>
+      </c>
+      <c r="L68">
+        <v>0.02247852930202169</v>
+      </c>
+      <c r="M68">
+        <v>0.02247852930202169</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>KGZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.0123714836983275</v>
+      </c>
+      <c r="E69">
+        <v>0.008924673352147323</v>
+      </c>
+      <c r="F69">
+        <v>1.386211372694202</v>
+      </c>
+      <c r="G69">
+        <v>0.1656823698228312</v>
+      </c>
+      <c r="H69">
+        <v>2.593508000610342</v>
+      </c>
+      <c r="I69">
+        <v>-0.0051205546456656</v>
+      </c>
+      <c r="J69">
+        <v>0.02986352204232061</v>
+      </c>
+      <c r="K69">
+        <v>-0.01775925770199283</v>
+      </c>
+      <c r="L69">
+        <v>-0.001452945154172131</v>
+      </c>
+      <c r="M69">
+        <v>-0.001452945154172131</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>KGZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0.001078229007944494</v>
+      </c>
+      <c r="E70">
+        <v>0.002182694353693296</v>
+      </c>
+      <c r="F70">
+        <v>0.4939899194406412</v>
+      </c>
+      <c r="G70">
+        <v>0.6213132987317831</v>
+      </c>
+      <c r="H70">
+        <v>0.6866071605030635</v>
+      </c>
+      <c r="I70">
+        <v>-0.003199773314553296</v>
+      </c>
+      <c r="J70">
+        <v>0.005356231330442284</v>
+      </c>
+      <c r="K70">
+        <v>0.02503802326880453</v>
+      </c>
+      <c r="L70">
+        <v>0.005819937651755154</v>
+      </c>
+      <c r="M70">
+        <v>0.005819937651755154</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>-0.002087672083022621</v>
+      </c>
+      <c r="E71">
+        <v>0.00171015741641171</v>
+      </c>
+      <c r="F71">
+        <v>-1.220748489576486</v>
+      </c>
+      <c r="G71">
+        <v>0.2221812622770771</v>
+      </c>
+      <c r="H71">
+        <v>2.170190943146032</v>
+      </c>
+      <c r="I71">
+        <v>-0.00543951902708364</v>
+      </c>
+      <c r="J71">
+        <v>0.001264174861038398</v>
+      </c>
+      <c r="K71">
+        <v>0.04134904669639711</v>
+      </c>
+      <c r="L71">
+        <v>0.03272460352180087</v>
+      </c>
+      <c r="M71">
+        <v>0.03272460352180087</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0.0005913421225234515</v>
+      </c>
+      <c r="E72">
+        <v>0.01013510210671382</v>
+      </c>
+      <c r="F72">
+        <v>0.05834594622699728</v>
+      </c>
+      <c r="G72">
+        <v>0.9534730700290361</v>
+      </c>
+      <c r="H72">
+        <v>0.06873590337001408</v>
+      </c>
+      <c r="I72">
+        <v>-0.01927309298627166</v>
+      </c>
+      <c r="J72">
+        <v>0.02045577723131856</v>
+      </c>
+      <c r="K72">
+        <v>-0.004909041780416363</v>
+      </c>
+      <c r="L72">
+        <v>0.008535668571709381</v>
+      </c>
+      <c r="M72">
+        <v>0.008535668571709381</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>JAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>-0.006548104887962442</v>
+      </c>
+      <c r="E73">
+        <v>0.006245663387534566</v>
+      </c>
+      <c r="F73">
+        <v>-1.048424239614243</v>
+      </c>
+      <c r="G73">
+        <v>0.2944431904658963</v>
+      </c>
+      <c r="H73">
+        <v>1.763938785922085</v>
+      </c>
+      <c r="I73">
+        <v>-0.01878938018709062</v>
+      </c>
+      <c r="J73">
+        <v>0.005693170411165736</v>
+      </c>
+      <c r="K73">
+        <v>0.03036785351799426</v>
+      </c>
+      <c r="L73">
+        <v>0.02332252438864759</v>
+      </c>
+      <c r="M73">
+        <v>0.02332252438864759</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>JAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>-0.001766854366905068</v>
+      </c>
+      <c r="E74">
+        <v>0.001643019531165363</v>
+      </c>
+      <c r="F74">
+        <v>-1.075370276123177</v>
+      </c>
+      <c r="G74">
+        <v>0.2822089840510548</v>
+      </c>
+      <c r="H74">
+        <v>1.825164178392325</v>
+      </c>
+      <c r="I74">
+        <v>-0.004987113473885064</v>
+      </c>
+      <c r="J74">
+        <v>0.001453404740074927</v>
+      </c>
+      <c r="K74">
+        <v>0.05483135024125529</v>
+      </c>
+      <c r="L74">
+        <v>0.06139172881118993</v>
+      </c>
+      <c r="M74">
+        <v>0.06139172881118993</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>-0.001823887874313279</v>
+      </c>
+      <c r="E75">
+        <v>0.001711960995099622</v>
+      </c>
+      <c r="F75">
+        <v>-1.065379339560913</v>
+      </c>
+      <c r="G75">
+        <v>0.2867043023488776</v>
+      </c>
+      <c r="H75">
+        <v>1.802364540742069</v>
+      </c>
+      <c r="I75">
+        <v>-0.005179269767645889</v>
+      </c>
+      <c r="J75">
+        <v>0.001531494019019331</v>
+      </c>
+      <c r="K75">
+        <v>0.06534139151768766</v>
+      </c>
+      <c r="L75">
+        <v>0.06646349538774424</v>
+      </c>
+      <c r="M75">
+        <v>0.06646349538774424</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>-0.002244875830099216</v>
+      </c>
+      <c r="E76">
+        <v>0.002643937303481984</v>
+      </c>
+      <c r="F76">
+        <v>-0.8490654551992528</v>
+      </c>
+      <c r="G76">
+        <v>0.3958448712514555</v>
+      </c>
+      <c r="H76">
+        <v>1.33699293560263</v>
+      </c>
+      <c r="I76">
+        <v>-0.007426897722305851</v>
+      </c>
+      <c r="J76">
+        <v>0.002937146062107418</v>
+      </c>
+      <c r="K76">
+        <v>0.08725861063704504</v>
+      </c>
+      <c r="L76">
+        <v>0.0236383079848005</v>
+      </c>
+      <c r="M76">
+        <v>0.0236383079848005</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>-0.004202833949827957</v>
+      </c>
+      <c r="E77">
+        <v>0.00204685100348329</v>
+      </c>
+      <c r="F77">
+        <v>-2.053316994092711</v>
+      </c>
+      <c r="G77">
+        <v>0.04004184374202171</v>
+      </c>
+      <c r="H77">
+        <v>4.642347784626016</v>
+      </c>
+      <c r="I77">
+        <v>-0.008214588198374874</v>
+      </c>
+      <c r="J77">
+        <v>-0.0001910797012810404</v>
+      </c>
+      <c r="K77">
+        <v>0.06406906383799135</v>
+      </c>
+      <c r="L77">
+        <v>0.03357327192428627</v>
+      </c>
+      <c r="M77">
+        <v>0.03357327192428627</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>-0.01341825965630068</v>
+      </c>
+      <c r="E78">
+        <v>0.002087010872468327</v>
+      </c>
+      <c r="F78">
+        <v>-6.429415310343248</v>
+      </c>
+      <c r="G78">
+        <v>1.280957029734193E-10</v>
+      </c>
+      <c r="H78">
+        <v>32.86205886822074</v>
+      </c>
+      <c r="I78">
+        <v>-0.01750872580168212</v>
+      </c>
+      <c r="J78">
+        <v>-0.009327793510919247</v>
+      </c>
+      <c r="K78">
+        <v>0.01434584504862267</v>
+      </c>
+      <c r="L78">
+        <v>0.01433289716845656</v>
+      </c>
+      <c r="M78">
+        <v>0.01433289716845656</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>HTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>-0.01047272423971568</v>
+      </c>
+      <c r="E79">
+        <v>0.008129927691695835</v>
+      </c>
+      <c r="F79">
+        <v>-1.288169420056817</v>
+      </c>
+      <c r="G79">
+        <v>0.1976869943691021</v>
+      </c>
+      <c r="H79">
+        <v>2.338710134171234</v>
+      </c>
+      <c r="I79">
+        <v>-0.02640708971235437</v>
+      </c>
+      <c r="J79">
+        <v>0.005461641232923004</v>
+      </c>
+      <c r="K79">
+        <v>0.1053719510612137</v>
+      </c>
+      <c r="L79">
+        <v>0.07572822108637717</v>
+      </c>
+      <c r="M79">
+        <v>0.07572822108637717</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>HTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0.01318894189585288</v>
+      </c>
+      <c r="E80">
+        <v>0.006607928285343107</v>
+      </c>
+      <c r="F80">
+        <v>1.995926911783677</v>
+      </c>
+      <c r="G80">
+        <v>0.04594187891154316</v>
+      </c>
+      <c r="H80">
+        <v>4.444046329120395</v>
+      </c>
+      <c r="I80">
+        <v>0.0002376404441568752</v>
+      </c>
+      <c r="J80">
+        <v>0.02614024334754888</v>
+      </c>
+      <c r="K80">
+        <v>0.04573751130611076</v>
+      </c>
+      <c r="L80">
+        <v>0.06526995256907903</v>
+      </c>
+      <c r="M80">
+        <v>0.06526995256907903</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>HND</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>-0.003513729232220888</v>
+      </c>
+      <c r="E81">
+        <v>0.005724552696120855</v>
+      </c>
+      <c r="F81">
+        <v>-0.6137997881654415</v>
+      </c>
+      <c r="G81">
+        <v>0.5393476372621542</v>
+      </c>
+      <c r="H81">
+        <v>0.8907126310245975</v>
+      </c>
+      <c r="I81">
+        <v>-0.01473364634421943</v>
+      </c>
+      <c r="J81">
+        <v>0.007706187879777651</v>
+      </c>
+      <c r="K81">
+        <v>0.1160819716774518</v>
+      </c>
+      <c r="L81">
+        <v>0.1111149566346212</v>
+      </c>
+      <c r="M81">
+        <v>0.1111149566346212</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>HND</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>-0.002727179158126718</v>
+      </c>
+      <c r="E82">
+        <v>0.002263766299676216</v>
+      </c>
+      <c r="F82">
+        <v>-1.204708789293658</v>
+      </c>
+      <c r="G82">
+        <v>0.2283157417758017</v>
+      </c>
+      <c r="H82">
+        <v>2.130897761829574</v>
+      </c>
+      <c r="I82">
+        <v>-0.007164079574907608</v>
+      </c>
+      <c r="J82">
+        <v>0.001709721258654172</v>
+      </c>
+      <c r="K82">
+        <v>-0.02526479661283184</v>
+      </c>
+      <c r="L82">
+        <v>-0.03339169507615671</v>
+      </c>
+      <c r="M82">
+        <v>-0.03339169507615671</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>GUY</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0.009722039991130178</v>
+      </c>
+      <c r="E83">
+        <v>0.004626285822474411</v>
+      </c>
+      <c r="F83">
+        <v>2.101478456843433</v>
+      </c>
+      <c r="G83">
+        <v>0.03559898716298886</v>
+      </c>
+      <c r="H83">
+        <v>4.812019994530235</v>
+      </c>
+      <c r="I83">
+        <v>0.0006546863968920728</v>
+      </c>
+      <c r="J83">
+        <v>0.01878939358536828</v>
+      </c>
+      <c r="K83">
+        <v>0.03761998231093513</v>
+      </c>
+      <c r="L83">
+        <v>0.03818667072640773</v>
+      </c>
+      <c r="M83">
+        <v>0.03818667072640773</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>GUY</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>-0.004241265030643545</v>
+      </c>
+      <c r="E84">
+        <v>0.005323108554151336</v>
+      </c>
+      <c r="F84">
+        <v>-0.7967647075947581</v>
+      </c>
+      <c r="G84">
+        <v>0.425587695533892</v>
+      </c>
+      <c r="H84">
+        <v>1.232471654219422</v>
+      </c>
+      <c r="I84">
+        <v>-0.01467436608257724</v>
+      </c>
+      <c r="J84">
+        <v>0.00619183602129015</v>
+      </c>
+      <c r="K84">
+        <v>0.016709544232999</v>
+      </c>
+      <c r="L84">
+        <v>0.001624676725671953</v>
+      </c>
+      <c r="M84">
+        <v>0.001624676725671953</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>GTM</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0.0001175354744466019</v>
+      </c>
+      <c r="E85">
+        <v>0.005741463626670718</v>
+      </c>
+      <c r="F85">
+        <v>0.02047134356135542</v>
+      </c>
+      <c r="G85">
+        <v>0.9836673718099662</v>
+      </c>
+      <c r="H85">
+        <v>0.02375754575295406</v>
+      </c>
+      <c r="I85">
+        <v>-0.01113552645237472</v>
+      </c>
+      <c r="J85">
+        <v>0.01137059740126793</v>
+      </c>
+      <c r="K85">
+        <v>0.1184569649741905</v>
+      </c>
+      <c r="L85">
+        <v>0.1573355722941075</v>
+      </c>
+      <c r="M85">
+        <v>0.1573355722941075</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>GTM</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0.018183960625594</v>
+      </c>
+      <c r="E86">
+        <v>0.007648134948142468</v>
+      </c>
+      <c r="F86">
+        <v>2.377567962501813</v>
+      </c>
+      <c r="G86">
+        <v>0.01742723117960447</v>
+      </c>
+      <c r="H86">
+        <v>5.842512815994603</v>
+      </c>
+      <c r="I86">
+        <v>0.003193891578332648</v>
+      </c>
+      <c r="J86">
+        <v>0.03317402967285534</v>
+      </c>
+      <c r="K86">
+        <v>0.007737853324060275</v>
+      </c>
+      <c r="L86">
+        <v>0.04073226279649007</v>
+      </c>
+      <c r="M86">
+        <v>0.04073226279649007</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>GNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.008648643972275038</v>
+      </c>
+      <c r="E87">
+        <v>0.008661438143574443</v>
+      </c>
+      <c r="F87">
+        <v>0.9985228583189852</v>
+      </c>
+      <c r="G87">
+        <v>0.3180258859156957</v>
+      </c>
+      <c r="H87">
+        <v>1.652783895534076</v>
+      </c>
+      <c r="I87">
+        <v>-0.008327462843452331</v>
+      </c>
+      <c r="J87">
+        <v>0.02562475078800241</v>
+      </c>
+      <c r="K87">
+        <v>0.08830901329567498</v>
+      </c>
+      <c r="L87">
+        <v>0.1054009814360813</v>
+      </c>
+      <c r="M87">
+        <v>0.1054009814360813</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>GNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0.008278112131634095</v>
+      </c>
+      <c r="E88">
+        <v>0.0008842757782498558</v>
+      </c>
+      <c r="F88">
+        <v>9.361459779004688</v>
+      </c>
+      <c r="G88">
+        <v>7.864253311762266E-21</v>
+      </c>
+      <c r="H88">
+        <v>66.78518020023671</v>
+      </c>
+      <c r="I88">
+        <v>0.006544963453863251</v>
+      </c>
+      <c r="J88">
+        <v>0.01001126080940494</v>
+      </c>
+      <c r="K88">
+        <v>0.06601299840125957</v>
+      </c>
+      <c r="L88">
+        <v>0.07635300815821811</v>
+      </c>
+      <c r="M88">
+        <v>0.07635300815821811</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>GMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>-0.009951699005691633</v>
+      </c>
+      <c r="E89">
+        <v>0.002727684618125501</v>
+      </c>
+      <c r="F89">
+        <v>-3.648405295671816</v>
+      </c>
+      <c r="G89">
+        <v>0.0002638731370254751</v>
+      </c>
+      <c r="H89">
+        <v>11.88786789153304</v>
+      </c>
+      <c r="I89">
+        <v>-0.0152978626184015</v>
+      </c>
+      <c r="J89">
+        <v>-0.004605535392981762</v>
+      </c>
+      <c r="K89">
+        <v>0.1365783801156776</v>
+      </c>
+      <c r="L89">
+        <v>0.1853518512922678</v>
+      </c>
+      <c r="M89">
+        <v>0.1853518512922678</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>GMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0.03065463898806745</v>
+      </c>
+      <c r="E90">
+        <v>0.0119973042242828</v>
+      </c>
+      <c r="F90">
+        <v>2.555127253172575</v>
+      </c>
+      <c r="G90">
+        <v>0.01061489833466656</v>
+      </c>
+      <c r="H90">
+        <v>6.55776563603259</v>
+      </c>
+      <c r="I90">
+        <v>0.00714035479690291</v>
+      </c>
+      <c r="J90">
+        <v>0.05416892317923198</v>
+      </c>
+      <c r="K90">
+        <v>0.02661353557085977</v>
+      </c>
+      <c r="L90">
+        <v>0.1161200104495546</v>
+      </c>
+      <c r="M90">
+        <v>0.1161200104495546</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0.00846165045475466</v>
+      </c>
+      <c r="E91">
+        <v>0.008590891686999974</v>
+      </c>
+      <c r="F91">
+        <v>0.9849560165633463</v>
+      </c>
+      <c r="G91">
+        <v>0.3246456760969491</v>
+      </c>
+      <c r="H91">
+        <v>1.623062100415329</v>
+      </c>
+      <c r="I91">
+        <v>-0.008376187846849832</v>
+      </c>
+      <c r="J91">
+        <v>0.02529948875635915</v>
+      </c>
+      <c r="K91">
+        <v>0.09200143656528026</v>
+      </c>
+      <c r="L91">
+        <v>0.1224472586561944</v>
+      </c>
+      <c r="M91">
+        <v>0.1224472586561944</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>-0.002748331518768862</v>
+      </c>
+      <c r="E92">
+        <v>0.002260836445687382</v>
+      </c>
+      <c r="F92">
+        <v>-1.215625979495948</v>
+      </c>
+      <c r="G92">
+        <v>0.2241274329343076</v>
+      </c>
+      <c r="H92">
+        <v>2.157608851054349</v>
+      </c>
+      <c r="I92">
+        <v>-0.007179489527251677</v>
+      </c>
+      <c r="J92">
+        <v>0.001682826489713952</v>
+      </c>
+      <c r="K92">
+        <v>0.07463767681157696</v>
+      </c>
+      <c r="L92">
+        <v>0.09061125155113535</v>
+      </c>
+      <c r="M92">
+        <v>0.09061125155113535</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>GEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>-0.006571753310938564</v>
+      </c>
+      <c r="E93">
+        <v>0.01108866825727099</v>
+      </c>
+      <c r="F93">
+        <v>-0.5926548759928297</v>
+      </c>
+      <c r="G93">
+        <v>0.5534121459124612</v>
+      </c>
+      <c r="H93">
+        <v>0.8535737873049019</v>
+      </c>
+      <c r="I93">
+        <v>-0.02830514373170221</v>
+      </c>
+      <c r="J93">
+        <v>0.01516163710982509</v>
+      </c>
+      <c r="K93">
+        <v>0.04968261606219979</v>
+      </c>
+      <c r="L93">
+        <v>0.05530539562667597</v>
+      </c>
+      <c r="M93">
+        <v>0.05530539562667597</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>GEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>-0.0007097470334013492</v>
+      </c>
+      <c r="E94">
+        <v>0.0073142578203094</v>
+      </c>
+      <c r="F94">
+        <v>-0.09703609728257108</v>
+      </c>
+      <c r="G94">
+        <v>0.9226977282144627</v>
+      </c>
+      <c r="H94">
+        <v>0.1160699902754042</v>
+      </c>
+      <c r="I94">
+        <v>-0.01504542893484821</v>
+      </c>
+      <c r="J94">
+        <v>0.01362593486804551</v>
+      </c>
+      <c r="K94">
+        <v>0.03025679346928017</v>
+      </c>
+      <c r="L94">
+        <v>0.1774342850390899</v>
+      </c>
+      <c r="M94">
+        <v>0.1774342850390899</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0.004265861936980332</v>
+      </c>
+      <c r="E95">
+        <v>0.004155946839427001</v>
+      </c>
+      <c r="F95">
+        <v>1.026447666873546</v>
+      </c>
+      <c r="G95">
+        <v>0.3046806194671554</v>
+      </c>
+      <c r="H95">
+        <v>1.7146303608225</v>
+      </c>
+      <c r="I95">
+        <v>-0.003879644189959655</v>
+      </c>
+      <c r="J95">
+        <v>0.01241136806392032</v>
+      </c>
+      <c r="K95">
+        <v>0.2153585230134558</v>
+      </c>
+      <c r="L95">
+        <v>0.2190979589443663</v>
+      </c>
+      <c r="M95">
+        <v>0.2190979589443663</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0.007030411874971193</v>
+      </c>
+      <c r="E96">
+        <v>0.004153724848766314</v>
+      </c>
+      <c r="F96">
+        <v>1.692555990332214</v>
+      </c>
+      <c r="G96">
+        <v>0.09054001410102519</v>
+      </c>
+      <c r="H96">
+        <v>3.465300658498476</v>
+      </c>
+      <c r="I96">
+        <v>-0.001110739230299864</v>
+      </c>
+      <c r="J96">
+        <v>0.01517156298024225</v>
+      </c>
+      <c r="K96">
+        <v>0.01659638658791133</v>
+      </c>
+      <c r="L96">
+        <v>-0.005480395322363822</v>
+      </c>
+      <c r="M96">
+        <v>-0.005480395322363822</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>-0.03250029336105397</v>
+      </c>
+      <c r="E97">
+        <v>0.01001737469146078</v>
+      </c>
+      <c r="F97">
+        <v>-3.244392304578418</v>
+      </c>
+      <c r="G97">
+        <v>0.001177015165736144</v>
+      </c>
+      <c r="H97">
+        <v>9.73065137516817</v>
+      </c>
+      <c r="I97">
+        <v>-0.05213398697596014</v>
+      </c>
+      <c r="J97">
+        <v>-0.01286659974614781</v>
+      </c>
+      <c r="K97">
+        <v>0.04626856288287395</v>
+      </c>
+      <c r="L97">
+        <v>0.01936433306590717</v>
+      </c>
+      <c r="M97">
+        <v>0.01936433306590717</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0.01877767046649159</v>
+      </c>
+      <c r="E98">
+        <v>0.01068751432407008</v>
+      </c>
+      <c r="F98">
+        <v>1.756972659601599</v>
+      </c>
+      <c r="G98">
+        <v>0.07892246947176658</v>
+      </c>
+      <c r="H98">
+        <v>3.663420091304072</v>
+      </c>
+      <c r="I98">
+        <v>-0.002169472692941692</v>
+      </c>
+      <c r="J98">
+        <v>0.03972481362592488</v>
+      </c>
+      <c r="K98">
+        <v>0.03654985195348373</v>
+      </c>
+      <c r="L98">
+        <v>0.06328201834004495</v>
+      </c>
+      <c r="M98">
+        <v>0.06328201834004495</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0.004777419768952024</v>
+      </c>
+      <c r="E99">
+        <v>0.01265274761019368</v>
+      </c>
+      <c r="F99">
+        <v>0.3775796306173924</v>
+      </c>
+      <c r="G99">
+        <v>0.7057428988512</v>
+      </c>
+      <c r="H99">
+        <v>0.5027853874627654</v>
+      </c>
+      <c r="I99">
+        <v>-0.02002150985250282</v>
+      </c>
+      <c r="J99">
+        <v>0.02957634939040687</v>
+      </c>
+      <c r="K99">
+        <v>0.02833539791022924</v>
+      </c>
+      <c r="L99">
+        <v>-0.002718935020557461</v>
+      </c>
+      <c r="M99">
+        <v>-0.002718935020557461</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0.03285586780641427</v>
+      </c>
+      <c r="E100">
+        <v>0.002089814080130981</v>
+      </c>
+      <c r="F100">
+        <v>15.7219094840987</v>
+      </c>
+      <c r="G100">
+        <v>1.07048205430617E-55</v>
+      </c>
+      <c r="H100">
+        <v>182.6077846083973</v>
+      </c>
+      <c r="I100">
+        <v>0.02875990747497284</v>
+      </c>
+      <c r="J100">
+        <v>0.03695182813785569</v>
+      </c>
+      <c r="K100">
+        <v>0.03826173515972697</v>
+      </c>
+      <c r="L100">
+        <v>0.04117664273429347</v>
+      </c>
+      <c r="M100">
+        <v>0.04117664273429347</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>COG</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>-0.01931950981751386</v>
+      </c>
+      <c r="E101">
+        <v>0.00701779581547465</v>
+      </c>
+      <c r="F101">
+        <v>-2.752931308561758</v>
+      </c>
+      <c r="G101">
+        <v>0.005906428771487623</v>
+      </c>
+      <c r="H101">
+        <v>7.4034981933366</v>
+      </c>
+      <c r="I101">
+        <v>-0.03307413686670006</v>
+      </c>
+      <c r="J101">
+        <v>-0.005564882768327648</v>
+      </c>
+      <c r="K101">
+        <v>0.08950622425267181</v>
+      </c>
+      <c r="L101">
+        <v>0.08816425716206526</v>
+      </c>
+      <c r="M101">
+        <v>0.08816425716206526</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>COG</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0.006836529068231022</v>
+      </c>
+      <c r="E102">
+        <v>0.008020413631201349</v>
+      </c>
+      <c r="F102">
+        <v>0.8523910838756833</v>
+      </c>
+      <c r="G102">
+        <v>0.3939970671579257</v>
+      </c>
+      <c r="H102">
+        <v>1.343743204323641</v>
+      </c>
+      <c r="I102">
+        <v>-0.008883192790037731</v>
+      </c>
+      <c r="J102">
+        <v>0.02255625092649978</v>
+      </c>
+      <c r="K102">
+        <v>0.06630752443565534</v>
+      </c>
+      <c r="L102">
+        <v>0.04073199353329404</v>
+      </c>
+      <c r="M102">
+        <v>0.04073199353329404</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>-0.02403882734154426</v>
+      </c>
+      <c r="E103">
+        <v>0.01035270616692765</v>
+      </c>
+      <c r="F103">
+        <v>-2.321984894957974</v>
+      </c>
+      <c r="G103">
+        <v>0.02023374898503869</v>
+      </c>
+      <c r="H103">
+        <v>5.627092537153567</v>
+      </c>
+      <c r="I103">
+        <v>-0.04432975857124816</v>
+      </c>
+      <c r="J103">
+        <v>-0.003747896111840371</v>
+      </c>
+      <c r="K103">
+        <v>0.09540443674234593</v>
+      </c>
+      <c r="L103">
+        <v>0.07576659703631086</v>
+      </c>
+      <c r="M103">
+        <v>0.07576659703631086</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>-0.01999907551430927</v>
+      </c>
+      <c r="E104">
+        <v>0.00495288368749341</v>
+      </c>
+      <c r="F104">
+        <v>-4.03786496436595</v>
+      </c>
+      <c r="G104">
+        <v>5.393988621554074E-05</v>
+      </c>
+      <c r="H104">
+        <v>14.17828799617898</v>
+      </c>
+      <c r="I104">
+        <v>-0.02970654916141229</v>
+      </c>
+      <c r="J104">
+        <v>-0.01029160186720626</v>
+      </c>
+      <c r="K104">
+        <v>0.151494764158783</v>
+      </c>
+      <c r="L104">
+        <v>0.2060377717187211</v>
+      </c>
+      <c r="M104">
+        <v>0.2060377717187211</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0.001105915385555159</v>
+      </c>
+      <c r="E105">
+        <v>0.003513168313315463</v>
+      </c>
+      <c r="F105">
+        <v>0.3147914608484782</v>
+      </c>
+      <c r="G105">
+        <v>0.7529199956331559</v>
+      </c>
+      <c r="H105">
+        <v>0.4094315208737898</v>
+      </c>
+      <c r="I105">
+        <v>-0.005779767980170476</v>
+      </c>
+      <c r="J105">
+        <v>0.007991598751280794</v>
+      </c>
+      <c r="K105">
+        <v>0.1316091121392883</v>
+      </c>
+      <c r="L105">
+        <v>0.1346946813021371</v>
+      </c>
+      <c r="M105">
+        <v>0.1346946813021371</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0.005477994675882075</v>
+      </c>
+      <c r="E106">
+        <v>0.01073798643195406</v>
+      </c>
+      <c r="F106">
+        <v>0.510151014866314</v>
+      </c>
+      <c r="G106">
+        <v>0.6099456673070789</v>
+      </c>
+      <c r="H106">
+        <v>0.7132473587655119</v>
+      </c>
+      <c r="I106">
+        <v>-0.01556807199722764</v>
+      </c>
+      <c r="J106">
+        <v>0.0265240613489918</v>
+      </c>
+      <c r="K106">
+        <v>0.01450846354493328</v>
+      </c>
+      <c r="L106">
+        <v>0.04416201265373357</v>
+      </c>
+      <c r="M106">
+        <v>0.04416201265373357</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>CIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0.0207658078580704</v>
+      </c>
+      <c r="E107">
+        <v>0.01462229721744629</v>
+      </c>
+      <c r="F107">
+        <v>1.420146749123258</v>
+      </c>
+      <c r="G107">
+        <v>0.1555649626873859</v>
+      </c>
+      <c r="H107">
+        <v>2.684410930765783</v>
+      </c>
+      <c r="I107">
+        <v>-0.007893368059364563</v>
+      </c>
+      <c r="J107">
+        <v>0.04942498377550536</v>
+      </c>
+      <c r="K107">
+        <v>0.1631438415324954</v>
+      </c>
+      <c r="L107">
+        <v>0.161409330569447</v>
+      </c>
+      <c r="M107">
+        <v>0.161409330569447</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>CIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0.001081762065635803</v>
+      </c>
+      <c r="E108">
+        <v>0.00153151371953219</v>
+      </c>
+      <c r="F108">
+        <v>0.7063352106086477</v>
+      </c>
+      <c r="G108">
+        <v>0.4799797016019001</v>
+      </c>
+      <c r="H108">
+        <v>1.058954699506669</v>
+      </c>
+      <c r="I108">
+        <v>-0.001919949666476267</v>
+      </c>
+      <c r="J108">
+        <v>0.004083473797747873</v>
+      </c>
+      <c r="K108">
+        <v>0.002304737583209704</v>
+      </c>
+      <c r="L108">
+        <v>0.01254523331562893</v>
+      </c>
+      <c r="M108">
+        <v>0.01254523331562893</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>-0.006196466039148214</v>
+      </c>
+      <c r="E109">
+        <v>0.004727495008599089</v>
+      </c>
+      <c r="F109">
+        <v>-1.310729261030871</v>
+      </c>
+      <c r="G109">
+        <v>0.189949249134607</v>
+      </c>
+      <c r="H109">
+        <v>2.396314085816357</v>
+      </c>
+      <c r="I109">
+        <v>-0.0154621859930953</v>
+      </c>
+      <c r="J109">
+        <v>0.003069253914798873</v>
+      </c>
+      <c r="K109">
+        <v>0.05828647062734973</v>
+      </c>
+      <c r="L109">
+        <v>0.05045889824080973</v>
+      </c>
+      <c r="M109">
+        <v>0.05045889824080973</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0.02069462209585485</v>
+      </c>
+      <c r="E110">
+        <v>0.01243008005407833</v>
+      </c>
+      <c r="F110">
+        <v>1.664882446920759</v>
+      </c>
+      <c r="G110">
+        <v>0.09593621083021713</v>
+      </c>
+      <c r="H110">
+        <v>3.381780730894175</v>
+      </c>
+      <c r="I110">
+        <v>-0.003667887135088359</v>
+      </c>
+      <c r="J110">
+        <v>0.04505713132679807</v>
+      </c>
+      <c r="K110">
+        <v>0.1966851583150221</v>
+      </c>
+      <c r="L110">
+        <v>0.1957660023297708</v>
+      </c>
+      <c r="M110">
+        <v>0.1957660023297708</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>BGD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>-0.007160219591304719</v>
+      </c>
+      <c r="E111">
+        <v>0.002501009974391527</v>
+      </c>
+      <c r="F111">
+        <v>-2.862931241626389</v>
+      </c>
+      <c r="G111">
+        <v>0.004197416390477375</v>
+      </c>
+      <c r="H111">
+        <v>7.896282696663573</v>
+      </c>
+      <c r="I111">
+        <v>-0.01206210906608755</v>
+      </c>
+      <c r="J111">
+        <v>-0.002258330116521884</v>
+      </c>
+      <c r="K111">
+        <v>0.3248072593644615</v>
+      </c>
+      <c r="L111">
+        <v>0.3251609090742451</v>
+      </c>
+      <c r="M111">
+        <v>0.3251609090742451</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>BGD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>-0.0001504107426959445</v>
+      </c>
+      <c r="E112">
+        <v>0.006622111925650548</v>
+      </c>
+      <c r="F112">
+        <v>-0.02271340991887091</v>
+      </c>
+      <c r="G112">
+        <v>0.9818788790272766</v>
+      </c>
+      <c r="H112">
+        <v>0.02638302493388444</v>
+      </c>
+      <c r="I112">
+        <v>-0.0131295116185642</v>
+      </c>
+      <c r="J112">
+        <v>0.01282869013317231</v>
+      </c>
+      <c r="K112">
+        <v>0.006254183027489951</v>
+      </c>
+      <c r="L112">
+        <v>0.008757658805445042</v>
+      </c>
+      <c r="M112">
+        <v>0.008757658805445042</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>-0.002974376465627727</v>
+      </c>
+      <c r="E113">
+        <v>0.003678201324940061</v>
+      </c>
+      <c r="F113">
+        <v>-0.808649718399032</v>
+      </c>
+      <c r="G113">
+        <v>0.4187166579287023</v>
+      </c>
+      <c r="H113">
+        <v>1.255953780503722</v>
+      </c>
+      <c r="I113">
+        <v>-0.01018351859039775</v>
+      </c>
+      <c r="J113">
+        <v>0.004234765659142299</v>
+      </c>
+      <c r="K113">
+        <v>0.2337534946347984</v>
+      </c>
+      <c r="L113">
+        <v>0.2850653255540636</v>
+      </c>
+      <c r="M113">
+        <v>0.2850653255540636</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0.002531585423675124</v>
+      </c>
+      <c r="E114">
+        <v>0.003699372417110935</v>
+      </c>
+      <c r="F114">
+        <v>0.684328350388738</v>
+      </c>
+      <c r="G114">
+        <v>0.4937678486692403</v>
+      </c>
+      <c r="H114">
+        <v>1.018095195376211</v>
+      </c>
+      <c r="I114">
+        <v>-0.004719051279263193</v>
+      </c>
+      <c r="J114">
+        <v>0.00978222212661344</v>
+      </c>
+      <c r="K114">
+        <v>-0.01089450830058608</v>
+      </c>
+      <c r="L114">
+        <v>0.01102182260966582</v>
+      </c>
+      <c r="M114">
+        <v>0.01102182260966582</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>-0.0119331619622668</v>
+      </c>
+      <c r="E115">
+        <v>0.004255182417925099</v>
+      </c>
+      <c r="F115">
+        <v>-2.804383170977102</v>
+      </c>
+      <c r="G115">
+        <v>0.005041295393889482</v>
+      </c>
+      <c r="H115">
+        <v>7.631989793355132</v>
+      </c>
+      <c r="I115">
+        <v>-0.02027316624904806</v>
+      </c>
+      <c r="J115">
+        <v>-0.003593157675485546</v>
+      </c>
+      <c r="K115">
+        <v>0.1475868796214487</v>
+      </c>
+      <c r="L115">
+        <v>0.1040695315105332</v>
+      </c>
+      <c r="M115">
+        <v>0.1040695315105332</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>-0.0002485460410077083</v>
+      </c>
+      <c r="E116">
+        <v>0.002510575076637344</v>
+      </c>
+      <c r="F116">
+        <v>-0.09899964487045339</v>
+      </c>
+      <c r="G116">
+        <v>0.9211385520723623</v>
+      </c>
+      <c r="H116">
+        <v>0.1185099208140209</v>
+      </c>
+      <c r="I116">
+        <v>-0.005169182771700787</v>
+      </c>
+      <c r="J116">
+        <v>0.004672090689685371</v>
+      </c>
+      <c r="K116">
+        <v>0.06313938127426499</v>
+      </c>
+      <c r="L116">
+        <v>0.004760360224615984</v>
+      </c>
+      <c r="M116">
+        <v>0.004760360224615984</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0.003273842249320949</v>
+      </c>
+      <c r="E117">
+        <v>0.003628796521242973</v>
+      </c>
+      <c r="F117">
+        <v>0.9021840244157747</v>
+      </c>
+      <c r="G117">
+        <v>0.3669591197982052</v>
+      </c>
+      <c r="H117">
+        <v>1.446308742852691</v>
+      </c>
+      <c r="I117">
+        <v>-0.003838468239539514</v>
+      </c>
+      <c r="J117">
+        <v>0.01038615273818141</v>
+      </c>
+      <c r="K117">
+        <v>-0.006069614936454866</v>
+      </c>
+      <c r="L117">
+        <v>-0.02694908754229203</v>
+      </c>
+      <c r="M117">
+        <v>-0.02694908754229203</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0.003793873722033951</v>
+      </c>
+      <c r="E118">
+        <v>0.003781184520663985</v>
+      </c>
+      <c r="F118">
+        <v>1.003355879963176</v>
+      </c>
+      <c r="G118">
+        <v>0.3156891835030656</v>
+      </c>
+      <c r="H118">
+        <v>1.663423264625506</v>
+      </c>
+      <c r="I118">
+        <v>-0.003617111757367805</v>
+      </c>
+      <c r="J118">
+        <v>0.01120485920143571</v>
+      </c>
+      <c r="K118">
+        <v>-0.006415645553959237</v>
+      </c>
+      <c r="L118">
+        <v>-0.006011620592764996</v>
+      </c>
+      <c r="M118">
+        <v>-0.006011620592764996</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>ARM</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>-0.0006883977438860586</v>
+      </c>
+      <c r="E119">
+        <v>0.008941096324661014</v>
+      </c>
+      <c r="F119">
+        <v>-0.07699254307185401</v>
+      </c>
+      <c r="G119">
+        <v>0.9386294771266743</v>
+      </c>
+      <c r="H119">
+        <v>0.09137232678977208</v>
+      </c>
+      <c r="I119">
+        <v>-0.01821262452252509</v>
+      </c>
+      <c r="J119">
+        <v>0.01683582903475297</v>
+      </c>
+      <c r="K119">
+        <v>0.06233835290577359</v>
+      </c>
+      <c r="L119">
+        <v>0.03890739523623962</v>
+      </c>
+      <c r="M119">
+        <v>0.03890739523623962</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>ARM</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>-0.002819505802021417</v>
+      </c>
+      <c r="E120">
+        <v>0.003139292108899131</v>
+      </c>
+      <c r="F120">
+        <v>-0.8981342621888554</v>
+      </c>
+      <c r="G120">
+        <v>0.3691139748201003</v>
+      </c>
+      <c r="H120">
+        <v>1.437861735190616</v>
+      </c>
+      <c r="I120">
+        <v>-0.008972405272414505</v>
+      </c>
+      <c r="J120">
+        <v>0.003333393668371671</v>
+      </c>
+      <c r="K120">
+        <v>0.003191454417782569</v>
+      </c>
+      <c r="L120">
+        <v>0.003571833332321288</v>
+      </c>
+      <c r="M120">
+        <v>0.003571833332321288</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0.003696745547297953</v>
+      </c>
+      <c r="E121">
+        <v>0.009640484713372597</v>
+      </c>
+      <c r="F121">
+        <v>0.3834605475977872</v>
+      </c>
+      <c r="G121">
+        <v>0.7013783171929893</v>
+      </c>
+      <c r="H121">
+        <v>0.5117352638998187</v>
+      </c>
+      <c r="I121">
+        <v>-0.01519825728442128</v>
+      </c>
+      <c r="J121">
+        <v>0.02259174837901718</v>
+      </c>
+      <c r="K121">
+        <v>0.1080678849519673</v>
+      </c>
+      <c r="L121">
+        <v>0.1405061880203963</v>
+      </c>
+      <c r="M121">
+        <v>0.1405061880203963</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0.002363396515319339</v>
+      </c>
+      <c r="E122">
+        <v>0.003252363784445296</v>
+      </c>
+      <c r="F122">
+        <v>0.7266704071120463</v>
+      </c>
+      <c r="G122">
+        <v>0.4674278859587472</v>
+      </c>
+      <c r="H122">
+        <v>1.097184289448018</v>
+      </c>
+      <c r="I122">
+        <v>-0.004011119366815832</v>
+      </c>
+      <c r="J122">
+        <v>0.008737912397454511</v>
+      </c>
+      <c r="K122">
+        <v>0.03439693190662792</v>
+      </c>
+      <c r="L122">
+        <v>0.08611275219831321</v>
+      </c>
+      <c r="M122">
+        <v>0.08611275219831321</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>AFG</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>drought2</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>-0.00963716798096041</v>
+      </c>
+      <c r="E123">
+        <v>0.003097243019607505</v>
+      </c>
+      <c r="F123">
+        <v>-3.111531100385423</v>
+      </c>
+      <c r="G123">
+        <v>0.00186119868028211</v>
+      </c>
+      <c r="H123">
+        <v>9.069552215423949</v>
+      </c>
+      <c r="I123">
+        <v>-0.0157076527507592</v>
+      </c>
+      <c r="J123">
+        <v>-0.003566683211161618</v>
+      </c>
+      <c r="K123">
         <v>0.1184477987646291</v>
       </c>
-      <c r="L62">
+      <c r="L123">
         <v>0.08154742571210571</v>
       </c>
-      <c r="M62">
+      <c r="M123">
         <v>0.08154742571210571</v>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="N123" t="inlineStr">
         <is>
           <t>AFG</t>
         </is>
